--- a/test_契約管理/已完成/test_契約管理_契約者一覧_車室追加.xlsx
+++ b/test_契約管理/已完成/test_契約管理_契約者一覧_車室追加.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="13650" tabRatio="850" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27765" windowHeight="13650" tabRatio="850"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="20" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9386" uniqueCount="987">
   <si>
     <t>SQL</t>
   </si>
@@ -2986,14 +2986,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3019,7 +3015,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Meiryo UI"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3038,45 +3033,41 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -3090,20 +3081,20 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3117,14 +3108,14 @@
       <sz val="10"/>
       <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3137,152 +3128,30 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="46">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3297,19 +3166,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
+        <fgColor theme="7" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
+        <fgColor theme="9" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3339,7 +3208,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.4"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
@@ -3351,25 +3220,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399914548173467"/>
+        <fgColor theme="8" tint="0.39988402966399123"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
+        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149937437055574"/>
+        <fgColor theme="0" tint="-0.14990691854609822"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3381,180 +3250,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor theme="4" tint="0.79995117038483843"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -3618,261 +3319,22 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="43" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3916,13 +3378,13 @@
     <xf numFmtId="49" fontId="8" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="10" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3942,12 +3404,12 @@
     <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="13" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="13" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3976,7 +3438,7 @@
     <xf numFmtId="49" fontId="12" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="13" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="13" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4003,65 +3465,102 @@
     <xf numFmtId="14" fontId="0" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="12" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="3">
+    <cellStyle name="標準 26" xfId="2"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="標準 26" xfId="14"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
-    <cellStyle name="标题" xfId="18" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="计算" xfId="26" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
-    <cellStyle name="汇总" xfId="31" builtinId="25"/>
-    <cellStyle name="好" xfId="32" builtinId="26"/>
-    <cellStyle name="适中" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="117">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF1F4BD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF1F4BD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF7FD9D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF1F4BD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF7FD9D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF1F4BD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF7FD9D"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4079,7 +3578,721 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFF1F4BD"/>
+          <bgColor rgb="FFF7FD9D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF7FD9D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF7FD9D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF7FD9D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4087,10 +4300,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
-      <color rgb="00FFFF99"/>
-      <color rgb="00FFFFCC"/>
-      <color rgb="00F7FD9D"/>
-      <color rgb="00F1F4BD"/>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFF7FD9D"/>
+      <color rgb="FFF1F4BD"/>
     </mruColors>
   </colors>
   <extLst>
@@ -4102,7 +4315,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -4116,7 +4329,7 @@
       <xdr:row>47</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="1025" name="Host Control  1"/>
         <xdr:cNvSpPr/>
@@ -4150,7 +4363,7 @@
       <xdr:row>47</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Host Control  1"/>
         <xdr:cNvSpPr/>
@@ -4455,16 +4668,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:IE339"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="C167" sqref="C167"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -4489,7 +4702,7 @@
     <col min="42" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" s="9" customFormat="1" ht="14.25" spans="1:2">
+    <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
@@ -4497,7 +4710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" ht="14.25" spans="1:2">
+    <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
@@ -4505,7 +4718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" ht="14.25" spans="1:7">
+    <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="40" t="s">
         <v>0</v>
       </c>
@@ -4518,7 +4731,7 @@
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
     </row>
-    <row r="5" s="9" customFormat="1" spans="1:7">
+    <row r="5" spans="1:7">
       <c r="A5" s="35"/>
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
@@ -4527,7 +4740,7 @@
       <c r="F5" s="35"/>
       <c r="G5" s="35"/>
     </row>
-    <row r="6" customFormat="1" ht="14.25" spans="1:2">
+    <row r="6" spans="1:7" customFormat="1" ht="14.25">
       <c r="A6" s="39" t="s">
         <v>0</v>
       </c>
@@ -4535,7 +4748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="14.25" spans="1:2">
+    <row r="7" spans="1:7" customFormat="1" ht="14.25">
       <c r="A7" s="39" t="s">
         <v>0</v>
       </c>
@@ -4543,7 +4756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="14.25" spans="1:2">
+    <row r="8" spans="1:7" customFormat="1" ht="14.25">
       <c r="A8" s="39" t="s">
         <v>0</v>
       </c>
@@ -4551,7 +4764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="14.25" spans="1:2">
+    <row r="9" spans="1:7" customFormat="1" ht="14.25">
       <c r="A9" s="39" t="s">
         <v>0</v>
       </c>
@@ -4559,7 +4772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="14.25" spans="1:2">
+    <row r="10" spans="1:7" customFormat="1" ht="14.25">
       <c r="A10" s="39" t="s">
         <v>0</v>
       </c>
@@ -4567,11 +4780,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="13.5" spans="1:2">
+    <row r="11" spans="1:7" customFormat="1" ht="13.5">
       <c r="A11" s="35"/>
       <c r="B11" s="35"/>
     </row>
-    <row r="12" customFormat="1" ht="14.25" spans="1:2">
+    <row r="12" spans="1:7" customFormat="1" ht="14.25">
       <c r="A12" s="39" t="s">
         <v>0</v>
       </c>
@@ -4579,7 +4792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" customFormat="1" ht="14.25" spans="1:2">
+    <row r="13" spans="1:7" customFormat="1" ht="14.25">
       <c r="A13" s="39" t="s">
         <v>0</v>
       </c>
@@ -4587,10 +4800,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="13.5" spans="2:2">
+    <row r="14" spans="1:7" customFormat="1" ht="13.5">
       <c r="B14" s="35"/>
     </row>
-    <row r="15" customFormat="1" ht="14.25" spans="1:2">
+    <row r="15" spans="1:7" customFormat="1" ht="14.25">
       <c r="A15" s="39" t="s">
         <v>0</v>
       </c>
@@ -4598,7 +4811,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" customFormat="1" ht="14.25" spans="1:2">
+    <row r="16" spans="1:7" customFormat="1" ht="14.25">
       <c r="A16" s="39" t="s">
         <v>0</v>
       </c>
@@ -4606,7 +4819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="14.25" spans="1:2">
+    <row r="17" spans="1:2" customFormat="1" ht="14.25">
       <c r="A17" s="39" t="s">
         <v>0</v>
       </c>
@@ -4614,7 +4827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="14.25" spans="1:2">
+    <row r="18" spans="1:2" customFormat="1" ht="14.25">
       <c r="A18" s="39" t="s">
         <v>0</v>
       </c>
@@ -4622,7 +4835,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" customFormat="1" ht="14.25" spans="1:2">
+    <row r="19" spans="1:2" customFormat="1" ht="14.25">
       <c r="A19" s="39" t="s">
         <v>0</v>
       </c>
@@ -4630,7 +4843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="14.25" spans="1:2">
+    <row r="20" spans="1:2" customFormat="1" ht="14.25">
       <c r="A20" s="39" t="s">
         <v>0</v>
       </c>
@@ -4638,8 +4851,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" customFormat="1" ht="13.5"/>
-    <row r="22" customFormat="1" ht="14.25" spans="1:2">
+    <row r="21" spans="1:2" customFormat="1" ht="13.5"/>
+    <row r="22" spans="1:2" customFormat="1" ht="14.25">
       <c r="A22" s="39" t="s">
         <v>0</v>
       </c>
@@ -4647,7 +4860,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="14.25" spans="1:2">
+    <row r="23" spans="1:2" customFormat="1" ht="14.25">
       <c r="A23" s="39" t="s">
         <v>0</v>
       </c>
@@ -4655,7 +4868,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" customFormat="1" ht="14.25" spans="1:2">
+    <row r="24" spans="1:2" customFormat="1" ht="14.25">
       <c r="A24" s="39" t="s">
         <v>0</v>
       </c>
@@ -4663,11 +4876,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="13.5" spans="1:2">
+    <row r="25" spans="1:2" customFormat="1" ht="13.5">
       <c r="A25" s="35"/>
       <c r="B25" s="35"/>
     </row>
-    <row r="26" customFormat="1" ht="14.25" spans="1:2">
+    <row r="26" spans="1:2" customFormat="1" ht="14.25">
       <c r="A26" s="39" t="s">
         <v>0</v>
       </c>
@@ -4675,7 +4888,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" customFormat="1" ht="14.25" spans="1:2">
+    <row r="27" spans="1:2" customFormat="1" ht="14.25">
       <c r="A27" s="39" t="s">
         <v>0</v>
       </c>
@@ -4683,7 +4896,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" customFormat="1" ht="14.25" spans="1:2">
+    <row r="28" spans="1:2" customFormat="1" ht="14.25">
       <c r="A28" s="39" t="s">
         <v>0</v>
       </c>
@@ -4691,7 +4904,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" customFormat="1" ht="14.25" spans="1:2">
+    <row r="29" spans="1:2" customFormat="1" ht="14.25">
       <c r="A29" s="39" t="s">
         <v>0</v>
       </c>
@@ -4699,11 +4912,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" customFormat="1" ht="13.5" spans="1:2">
+    <row r="30" spans="1:2" customFormat="1" ht="13.5">
       <c r="A30" s="35"/>
       <c r="B30" s="35"/>
     </row>
-    <row r="31" customFormat="1" ht="14.25" spans="1:2">
+    <row r="31" spans="1:2" customFormat="1" ht="14.25">
       <c r="A31" s="39" t="s">
         <v>0</v>
       </c>
@@ -4711,7 +4924,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" customFormat="1" ht="14.25" spans="1:2">
+    <row r="32" spans="1:2" customFormat="1" ht="14.25">
       <c r="A32" s="39" t="s">
         <v>0</v>
       </c>
@@ -4719,7 +4932,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" customFormat="1" ht="14.25" spans="1:2">
+    <row r="33" spans="1:2" customFormat="1" ht="14.25">
       <c r="A33" s="39" t="s">
         <v>0</v>
       </c>
@@ -4727,7 +4940,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" customFormat="1" ht="14.25" spans="1:2">
+    <row r="34" spans="1:2" customFormat="1" ht="14.25">
       <c r="A34" s="39" t="s">
         <v>0</v>
       </c>
@@ -4735,7 +4948,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" customFormat="1" ht="14.25" spans="1:2">
+    <row r="35" spans="1:2" customFormat="1" ht="14.25">
       <c r="A35" s="39" t="s">
         <v>0</v>
       </c>
@@ -4743,7 +4956,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" customFormat="1" ht="14.25" spans="1:2">
+    <row r="36" spans="1:2" customFormat="1" ht="14.25">
       <c r="A36" s="39" t="s">
         <v>0</v>
       </c>
@@ -4751,7 +4964,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" customFormat="1" ht="14.25" spans="1:2">
+    <row r="37" spans="1:2" customFormat="1" ht="14.25">
       <c r="A37" s="39" t="s">
         <v>0</v>
       </c>
@@ -4759,7 +4972,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" customFormat="1" ht="14.25" spans="1:2">
+    <row r="38" spans="1:2" customFormat="1" ht="14.25">
       <c r="A38" s="39" t="s">
         <v>0</v>
       </c>
@@ -4767,7 +4980,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" customFormat="1" ht="14.25" spans="1:2">
+    <row r="39" spans="1:2" customFormat="1" ht="14.25">
       <c r="A39" s="39" t="s">
         <v>0</v>
       </c>
@@ -4775,7 +4988,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" customFormat="1" ht="14.25" spans="1:2">
+    <row r="40" spans="1:2" customFormat="1" ht="14.25">
       <c r="A40" s="39" t="s">
         <v>0</v>
       </c>
@@ -4783,7 +4996,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" customFormat="1" ht="14.25" spans="1:2">
+    <row r="41" spans="1:2" customFormat="1" ht="14.25">
       <c r="A41" s="39" t="s">
         <v>0</v>
       </c>
@@ -4791,7 +5004,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" customFormat="1" ht="14.25" spans="1:2">
+    <row r="42" spans="1:2" customFormat="1" ht="14.25">
       <c r="A42" s="39" t="s">
         <v>0</v>
       </c>
@@ -4799,7 +5012,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" customFormat="1" ht="14.25" spans="1:2">
+    <row r="43" spans="1:2" customFormat="1" ht="14.25">
       <c r="A43" s="39" t="s">
         <v>0</v>
       </c>
@@ -4807,7 +5020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" customFormat="1" ht="14.25" spans="1:2">
+    <row r="44" spans="1:2" customFormat="1" ht="14.25">
       <c r="A44" s="39" t="s">
         <v>0</v>
       </c>
@@ -4815,7 +5028,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" customFormat="1" ht="14.25" spans="1:2">
+    <row r="45" spans="1:2" customFormat="1" ht="14.25">
       <c r="A45" s="39" t="s">
         <v>0</v>
       </c>
@@ -4823,7 +5036,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" customFormat="1" ht="14.25" spans="1:2">
+    <row r="46" spans="1:2" customFormat="1" ht="14.25">
       <c r="A46" s="39" t="s">
         <v>0</v>
       </c>
@@ -4831,7 +5044,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" customFormat="1" ht="14.25" spans="1:2">
+    <row r="47" spans="1:2" customFormat="1" ht="14.25">
       <c r="A47" s="39" t="s">
         <v>0</v>
       </c>
@@ -4839,7 +5052,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" customFormat="1" ht="14.25" spans="1:2">
+    <row r="48" spans="1:2" customFormat="1" ht="14.25">
       <c r="A48" s="39" t="s">
         <v>0</v>
       </c>
@@ -4847,7 +5060,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" customFormat="1" ht="14.25" spans="1:2">
+    <row r="49" spans="1:8" customFormat="1" ht="14.25">
       <c r="A49" s="39" t="s">
         <v>0</v>
       </c>
@@ -4855,7 +5068,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" customFormat="1" ht="14.25" spans="1:2">
+    <row r="50" spans="1:8" customFormat="1" ht="14.25">
       <c r="A50" s="39" t="s">
         <v>0</v>
       </c>
@@ -4863,7 +5076,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" customFormat="1" ht="14.25" spans="1:2">
+    <row r="51" spans="1:8" customFormat="1" ht="14.25">
       <c r="A51" s="39" t="s">
         <v>0</v>
       </c>
@@ -4871,7 +5084,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" customFormat="1" ht="14.25" spans="1:2">
+    <row r="52" spans="1:8" customFormat="1" ht="14.25">
       <c r="A52" s="39" t="s">
         <v>0</v>
       </c>
@@ -4879,7 +5092,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" customFormat="1" ht="14.25" spans="1:2">
+    <row r="53" spans="1:8" customFormat="1" ht="14.25">
       <c r="A53" s="39" t="s">
         <v>0</v>
       </c>
@@ -4887,7 +5100,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" customFormat="1" ht="14.25" spans="1:2">
+    <row r="54" spans="1:8" customFormat="1" ht="14.25">
       <c r="A54" s="39" t="s">
         <v>0</v>
       </c>
@@ -4895,7 +5108,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" customFormat="1" ht="14.25" spans="1:2">
+    <row r="55" spans="1:8" customFormat="1" ht="14.25">
       <c r="A55" s="39" t="s">
         <v>0</v>
       </c>
@@ -4903,7 +5116,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" customFormat="1" ht="14.25" spans="1:2">
+    <row r="56" spans="1:8" customFormat="1" ht="14.25">
       <c r="A56" s="39" t="s">
         <v>0</v>
       </c>
@@ -4911,7 +5124,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" customFormat="1" ht="14.25" spans="1:2">
+    <row r="57" spans="1:8" customFormat="1" ht="14.25">
       <c r="A57" s="39" t="s">
         <v>0</v>
       </c>
@@ -4919,13 +5132,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" customFormat="1" ht="13.5"/>
-    <row r="59" customFormat="1" ht="13.5"/>
-    <row r="60" customFormat="1" ht="13.5" spans="1:2">
+    <row r="58" spans="1:8" customFormat="1" ht="13.5"/>
+    <row r="59" spans="1:8" customFormat="1" ht="13.5"/>
+    <row r="60" spans="1:8" customFormat="1" ht="13.5">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
     </row>
-    <row r="61" customFormat="1" ht="14.25" spans="1:8">
+    <row r="61" spans="1:8" customFormat="1" ht="14.25">
       <c r="A61" s="39" t="s">
         <v>0</v>
       </c>
@@ -4938,7 +5151,7 @@
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
     </row>
-    <row r="62" customFormat="1" ht="14.25" spans="1:8">
+    <row r="62" spans="1:8" customFormat="1" ht="14.25">
       <c r="A62" s="39" t="s">
         <v>0</v>
       </c>
@@ -4952,7 +5165,7 @@
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
     </row>
-    <row r="63" customFormat="1" ht="14.25" spans="1:8">
+    <row r="63" spans="1:8" customFormat="1" ht="14.25">
       <c r="A63" s="39" t="s">
         <v>0</v>
       </c>
@@ -4966,7 +5179,7 @@
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
     </row>
-    <row r="64" customFormat="1" ht="14.25" spans="1:8">
+    <row r="64" spans="1:8" customFormat="1" ht="14.25">
       <c r="A64" s="39" t="s">
         <v>0</v>
       </c>
@@ -4980,7 +5193,7 @@
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
     </row>
-    <row r="65" customFormat="1" ht="13.5" spans="1:8">
+    <row r="65" spans="1:19" customFormat="1" ht="13.5">
       <c r="A65" s="35"/>
       <c r="C65" s="35"/>
       <c r="D65" s="35"/>
@@ -4989,10 +5202,8 @@
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
     </row>
-    <row r="66" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A66" s="39" t="s">
-        <v>0</v>
-      </c>
+    <row r="66" spans="1:19" customFormat="1" ht="14.25">
+      <c r="A66" s="39"/>
       <c r="B66" t="s">
         <v>53</v>
       </c>
@@ -5003,7 +5214,7 @@
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
     </row>
-    <row r="67" customFormat="1" ht="14.25" spans="1:8">
+    <row r="67" spans="1:19" customFormat="1" ht="14.25">
       <c r="A67" s="39" t="s">
         <v>0</v>
       </c>
@@ -5017,7 +5228,7 @@
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
     </row>
-    <row r="68" customFormat="1" ht="14.25" spans="1:8">
+    <row r="68" spans="1:19" customFormat="1" ht="14.25">
       <c r="A68" s="39" t="s">
         <v>0</v>
       </c>
@@ -5031,7 +5242,7 @@
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
     </row>
-    <row r="69" customFormat="1" ht="14.25" spans="1:8">
+    <row r="69" spans="1:19" customFormat="1" ht="14.25">
       <c r="A69" s="39" t="s">
         <v>0</v>
       </c>
@@ -5045,7 +5256,7 @@
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
     </row>
-    <row r="70" customFormat="1" ht="14.25" spans="1:8">
+    <row r="70" spans="1:19" customFormat="1" ht="14.25">
       <c r="A70" s="39" t="s">
         <v>0</v>
       </c>
@@ -5059,7 +5270,7 @@
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
     </row>
-    <row r="71" customFormat="1" ht="14.25" spans="1:2">
+    <row r="71" spans="1:19" customFormat="1" ht="14.25">
       <c r="A71" s="39" t="s">
         <v>0</v>
       </c>
@@ -5067,7 +5278,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" s="9" customFormat="1" spans="1:7">
+    <row r="72" spans="1:19">
       <c r="A72" s="35"/>
       <c r="B72" s="35"/>
       <c r="C72" s="35"/>
@@ -5076,7 +5287,7 @@
       <c r="F72" s="35"/>
       <c r="G72" s="35"/>
     </row>
-    <row r="73" s="9" customFormat="1" spans="1:7">
+    <row r="73" spans="1:19">
       <c r="A73" s="35"/>
       <c r="B73" s="35"/>
       <c r="C73" s="35"/>
@@ -5085,7 +5296,7 @@
       <c r="F73" s="35"/>
       <c r="G73" s="35"/>
     </row>
-    <row r="74" customFormat="1" ht="13.5" spans="1:7">
+    <row r="74" spans="1:19" customFormat="1" ht="13.5">
       <c r="A74" s="35"/>
       <c r="B74" s="35"/>
       <c r="C74" s="35"/>
@@ -5094,7 +5305,7 @@
       <c r="F74" s="35"/>
       <c r="G74" s="35"/>
     </row>
-    <row r="75" s="35" customFormat="1" ht="14.25" spans="1:2">
+    <row r="75" spans="1:19" s="35" customFormat="1" ht="14.25">
       <c r="A75" s="41" t="s">
         <v>59</v>
       </c>
@@ -5102,7 +5313,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" s="35" customFormat="1" spans="2:19">
+    <row r="76" spans="1:19" s="35" customFormat="1">
       <c r="B76" s="42" t="s">
         <v>61</v>
       </c>
@@ -5158,7 +5369,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="77" s="35" customFormat="1" spans="2:19">
+    <row r="77" spans="1:19" s="35" customFormat="1">
       <c r="B77" s="22" t="s">
         <v>63</v>
       </c>
@@ -5214,7 +5425,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" s="35" customFormat="1" spans="2:19">
+    <row r="78" spans="1:19" s="35" customFormat="1">
       <c r="B78" s="24" t="s">
         <v>81</v>
       </c>
@@ -5270,7 +5481,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" s="35" customFormat="1" spans="2:19">
+    <row r="79" spans="1:19" s="35" customFormat="1">
       <c r="B79" s="24" t="s">
         <v>87</v>
       </c>
@@ -5326,7 +5537,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="80" s="35" customFormat="1" spans="2:19">
+    <row r="80" spans="1:19" s="35" customFormat="1">
       <c r="B80" s="24" t="s">
         <v>90</v>
       </c>
@@ -5382,7 +5593,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="81" s="35" customFormat="1" spans="2:19">
+    <row r="81" spans="1:239" s="35" customFormat="1">
       <c r="B81" s="24" t="s">
         <v>93</v>
       </c>
@@ -5438,7 +5649,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" s="35" customFormat="1" spans="2:19">
+    <row r="82" spans="1:239" s="35" customFormat="1">
       <c r="B82" s="24" t="s">
         <v>97</v>
       </c>
@@ -5494,7 +5705,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" s="35" customFormat="1" spans="2:19">
+    <row r="83" spans="1:239" s="35" customFormat="1">
       <c r="B83" s="24" t="s">
         <v>100</v>
       </c>
@@ -5550,7 +5761,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" s="35" customFormat="1" spans="2:19">
+    <row r="84" spans="1:239" s="35" customFormat="1">
       <c r="B84" s="24" t="s">
         <v>102</v>
       </c>
@@ -5606,8 +5817,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" s="35" customFormat="1"/>
-    <row r="86" s="9" customFormat="1" spans="1:7">
+    <row r="85" spans="1:239" s="35" customFormat="1"/>
+    <row r="86" spans="1:239">
       <c r="A86" s="35"/>
       <c r="B86" s="35"/>
       <c r="C86" s="35"/>
@@ -5616,7 +5827,7 @@
       <c r="F86" s="35"/>
       <c r="G86" s="35"/>
     </row>
-    <row r="87" customFormat="1" ht="13.5" spans="1:7">
+    <row r="87" spans="1:239" customFormat="1" ht="13.5">
       <c r="A87" s="35"/>
       <c r="B87" s="35"/>
       <c r="C87" s="35"/>
@@ -5625,7 +5836,7 @@
       <c r="F87" s="35"/>
       <c r="G87" s="35"/>
     </row>
-    <row r="88" s="36" customFormat="1" ht="12.75" customHeight="1" spans="1:2">
+    <row r="88" spans="1:239" s="36" customFormat="1" ht="12.75" customHeight="1">
       <c r="A88" s="45" t="s">
         <v>59</v>
       </c>
@@ -5633,7 +5844,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="89" s="36" customFormat="1" ht="13.5" spans="2:71">
+    <row r="89" spans="1:239" s="36" customFormat="1" ht="13.5">
       <c r="B89" s="46" t="s">
         <v>106</v>
       </c>
@@ -5707,7 +5918,7 @@
       <c r="BR89" s="47"/>
       <c r="BS89" s="47"/>
     </row>
-    <row r="90" s="36" customFormat="1" ht="13.5" spans="1:74">
+    <row r="90" spans="1:239" s="36" customFormat="1" ht="13.5">
       <c r="A90" s="10"/>
       <c r="B90" s="48" t="s">
         <v>64</v>
@@ -5929,7 +6140,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="91" s="36" customFormat="1" ht="13.5" spans="1:239">
+    <row r="91" spans="1:239" s="36" customFormat="1" ht="13.5">
       <c r="A91" s="50"/>
       <c r="B91" s="51" t="s">
         <v>82</v>
@@ -6316,7 +6527,7 @@
       <c r="ID91" s="10"/>
       <c r="IE91" s="10"/>
     </row>
-    <row r="92" customFormat="1" ht="13.5" spans="1:239">
+    <row r="92" spans="1:239" customFormat="1" ht="13.5">
       <c r="A92" s="10"/>
       <c r="B92" s="51" t="s">
         <v>94</v>
@@ -6703,7 +6914,7 @@
       <c r="ID92" s="10"/>
       <c r="IE92" s="10"/>
     </row>
-    <row r="93" customFormat="1" ht="13.5" spans="1:239">
+    <row r="93" spans="1:239" customFormat="1" ht="13.5">
       <c r="A93" s="12"/>
       <c r="B93" s="51" t="s">
         <v>94</v>
@@ -7090,7 +7301,7 @@
       <c r="ID93" s="10"/>
       <c r="IE93" s="10"/>
     </row>
-    <row r="94" customFormat="1" ht="13.5" spans="1:239">
+    <row r="94" spans="1:239" customFormat="1" ht="13.5">
       <c r="A94" s="12"/>
       <c r="B94" s="51" t="s">
         <v>82</v>
@@ -7477,7 +7688,7 @@
       <c r="ID94" s="10"/>
       <c r="IE94" s="10"/>
     </row>
-    <row r="95" customFormat="1" ht="13.5" spans="1:239">
+    <row r="95" spans="1:239" customFormat="1" ht="13.5">
       <c r="A95" s="12"/>
       <c r="B95" s="51" t="s">
         <v>82</v>
@@ -7864,7 +8075,7 @@
       <c r="ID95" s="10"/>
       <c r="IE95" s="10"/>
     </row>
-    <row r="96" customFormat="1" ht="13.5" spans="1:239">
+    <row r="96" spans="1:239" customFormat="1" ht="13.5">
       <c r="A96" s="12"/>
       <c r="B96" s="51" t="s">
         <v>94</v>
@@ -8251,7 +8462,7 @@
       <c r="ID96" s="10"/>
       <c r="IE96" s="10"/>
     </row>
-    <row r="97" customFormat="1" ht="13.5" spans="1:239">
+    <row r="97" spans="1:239" customFormat="1" ht="13.5">
       <c r="A97" s="12"/>
       <c r="B97" s="51" t="s">
         <v>94</v>
@@ -8638,7 +8849,7 @@
       <c r="ID97" s="10"/>
       <c r="IE97" s="10"/>
     </row>
-    <row r="98" customFormat="1" ht="13.5" spans="1:239">
+    <row r="98" spans="1:239" customFormat="1" ht="13.5">
       <c r="A98" s="12"/>
       <c r="B98" s="51" t="s">
         <v>82</v>
@@ -9025,7 +9236,7 @@
       <c r="ID98" s="10"/>
       <c r="IE98" s="10"/>
     </row>
-    <row r="99" customFormat="1" ht="13.5" spans="1:7">
+    <row r="99" spans="1:239" customFormat="1" ht="13.5">
       <c r="A99" s="35"/>
       <c r="B99" s="35"/>
       <c r="C99" s="35"/>
@@ -9034,7 +9245,7 @@
       <c r="F99" s="35"/>
       <c r="G99" s="35"/>
     </row>
-    <row r="103" ht="14.25" spans="1:10">
+    <row r="103" spans="1:239" ht="14.25">
       <c r="A103" s="41" t="s">
         <v>59</v>
       </c>
@@ -9050,7 +9261,7 @@
       <c r="I103" s="35"/>
       <c r="J103" s="35"/>
     </row>
-    <row r="104" spans="2:10">
+    <row r="104" spans="1:239">
       <c r="B104" s="42" t="s">
         <v>226</v>
       </c>
@@ -9079,7 +9290,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:239">
       <c r="A105" s="35"/>
       <c r="B105" s="22" t="s">
         <v>63</v>
@@ -9109,7 +9320,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:239">
       <c r="A106" s="35"/>
       <c r="B106" s="24" t="s">
         <v>81</v>
@@ -9139,7 +9350,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:239">
       <c r="A107" s="35"/>
       <c r="B107" s="24" t="s">
         <v>87</v>
@@ -9169,7 +9380,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:239">
       <c r="A108" s="35"/>
       <c r="B108" s="24" t="s">
         <v>90</v>
@@ -9199,7 +9410,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:239">
       <c r="A109" s="35"/>
       <c r="B109" s="24" t="s">
         <v>93</v>
@@ -9229,7 +9440,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:239">
       <c r="A110" s="35"/>
       <c r="B110" s="24" t="s">
         <v>97</v>
@@ -9259,7 +9470,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:239">
       <c r="A111" s="35"/>
       <c r="B111" s="24" t="s">
         <v>100</v>
@@ -9289,7 +9500,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:239">
       <c r="A112" s="35"/>
       <c r="B112" s="24" t="s">
         <v>102</v>
@@ -9319,7 +9530,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="115" s="35" customFormat="1" ht="14.25" spans="1:2">
+    <row r="115" spans="1:35" s="35" customFormat="1" ht="14.25">
       <c r="A115" s="41" t="s">
         <v>59</v>
       </c>
@@ -9327,7 +9538,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="116" s="35" customFormat="1" spans="2:13">
+    <row r="116" spans="1:35" s="35" customFormat="1">
       <c r="B116" s="42" t="s">
         <v>234</v>
       </c>
@@ -9365,7 +9576,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="117" s="35" customFormat="1" spans="2:13">
+    <row r="117" spans="1:35" s="35" customFormat="1">
       <c r="B117" s="22" t="s">
         <v>63</v>
       </c>
@@ -9403,7 +9614,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="118" s="35" customFormat="1" spans="2:13">
+    <row r="118" spans="1:35" s="35" customFormat="1">
       <c r="B118" s="24" t="s">
         <v>81</v>
       </c>
@@ -9441,7 +9652,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="119" s="35" customFormat="1" spans="2:13">
+    <row r="119" spans="1:35" s="35" customFormat="1">
       <c r="B119" s="24" t="s">
         <v>87</v>
       </c>
@@ -9479,7 +9690,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="120" s="35" customFormat="1" spans="2:13">
+    <row r="120" spans="1:35" s="35" customFormat="1">
       <c r="B120" s="24" t="s">
         <v>90</v>
       </c>
@@ -9517,8 +9728,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="121" s="35" customFormat="1"/>
-    <row r="124" ht="13.5" spans="2:35">
+    <row r="121" spans="1:35" s="35" customFormat="1"/>
+    <row r="124" spans="1:35" ht="13.5">
       <c r="B124" s="12"/>
       <c r="C124" s="10"/>
       <c r="D124" s="10"/>
@@ -9554,7 +9765,7 @@
       <c r="AH124" s="10"/>
       <c r="AI124" s="10"/>
     </row>
-    <row r="125" ht="13.5" spans="2:35">
+    <row r="125" spans="1:35" ht="13.5">
       <c r="B125" s="14"/>
       <c r="C125" s="10"/>
       <c r="D125" s="10"/>
@@ -9590,7 +9801,7 @@
       <c r="AH125" s="10"/>
       <c r="AI125" s="10"/>
     </row>
-    <row r="126" ht="14.25" spans="1:35">
+    <row r="126" spans="1:35" ht="14.25">
       <c r="A126" s="41" t="s">
         <v>59</v>
       </c>
@@ -9631,7 +9842,7 @@
       <c r="AH126" s="10"/>
       <c r="AI126" s="10"/>
     </row>
-    <row r="127" ht="13.5" spans="2:35">
+    <row r="127" spans="1:35" ht="13.5">
       <c r="B127" s="42" t="s">
         <v>249</v>
       </c>
@@ -9669,7 +9880,7 @@
       <c r="AH127" s="10"/>
       <c r="AI127" s="10"/>
     </row>
-    <row r="128" s="9" customFormat="1" ht="13.5" spans="2:35">
+    <row r="128" spans="1:35" ht="13.5">
       <c r="B128" s="23" t="s">
         <v>64</v>
       </c>
@@ -9719,7 +9930,7 @@
       <c r="AH128" s="10"/>
       <c r="AI128" s="10"/>
     </row>
-    <row r="129" s="9" customFormat="1" ht="13.5" spans="2:35">
+    <row r="129" spans="1:36" ht="13.5">
       <c r="B129" s="24" t="s">
         <v>82</v>
       </c>
@@ -9769,7 +9980,7 @@
       <c r="AH129" s="10"/>
       <c r="AI129" s="10"/>
     </row>
-    <row r="130" ht="13.5" spans="2:35">
+    <row r="130" spans="1:36" ht="13.5">
       <c r="B130" s="12"/>
       <c r="C130" s="10"/>
       <c r="D130" s="10"/>
@@ -9805,7 +10016,7 @@
       <c r="AH130" s="10"/>
       <c r="AI130" s="10"/>
     </row>
-    <row r="131" ht="13.5" spans="2:35">
+    <row r="131" spans="1:36" ht="13.5">
       <c r="B131" s="14"/>
       <c r="C131" s="10"/>
       <c r="D131" s="10"/>
@@ -9841,7 +10052,7 @@
       <c r="AH131" s="10"/>
       <c r="AI131" s="10"/>
     </row>
-    <row r="132" ht="13.5" spans="2:35">
+    <row r="132" spans="1:36" ht="13.5">
       <c r="B132" s="10"/>
       <c r="C132" s="10"/>
       <c r="D132" s="10"/>
@@ -9877,7 +10088,7 @@
       <c r="AH132" s="10"/>
       <c r="AI132" s="10"/>
     </row>
-    <row r="134" ht="14.25" spans="1:2">
+    <row r="134" spans="1:36" ht="14.25">
       <c r="A134" s="11" t="s">
         <v>59</v>
       </c>
@@ -9885,13 +10096,13 @@
         <v>252</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:36">
       <c r="A135" s="13"/>
       <c r="B135" s="14" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="136" s="9" customFormat="1" spans="2:36">
+    <row r="136" spans="1:36">
       <c r="B136" s="22" t="s">
         <v>63</v>
       </c>
@@ -9996,7 +10207,7 @@
       </c>
       <c r="AJ136" s="23"/>
     </row>
-    <row r="137" s="9" customFormat="1" spans="2:35">
+    <row r="137" spans="1:36">
       <c r="B137" s="24">
         <v>1</v>
       </c>
@@ -10100,7 +10311,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="138" s="9" customFormat="1" spans="2:35">
+    <row r="138" spans="1:36">
       <c r="B138" s="24">
         <v>2</v>
       </c>
@@ -10204,7 +10415,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="139" s="9" customFormat="1" spans="2:35">
+    <row r="139" spans="1:36">
       <c r="B139" s="24">
         <v>3</v>
       </c>
@@ -10308,7 +10519,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="140" s="9" customFormat="1" spans="2:35">
+    <row r="140" spans="1:36">
       <c r="B140" s="24">
         <v>4</v>
       </c>
@@ -10412,7 +10623,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="141" s="9" customFormat="1" spans="2:35">
+    <row r="141" spans="1:36">
       <c r="B141" s="24">
         <v>5</v>
       </c>
@@ -10516,7 +10727,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="142" s="9" customFormat="1" spans="2:35">
+    <row r="142" spans="1:36">
       <c r="B142" s="24">
         <v>6</v>
       </c>
@@ -10620,7 +10831,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="143" s="9" customFormat="1" spans="2:35">
+    <row r="143" spans="1:36">
       <c r="B143" s="24">
         <v>7</v>
       </c>
@@ -10724,7 +10935,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="144" s="9" customFormat="1" spans="2:35">
+    <row r="144" spans="1:36">
       <c r="B144" s="24">
         <v>8</v>
       </c>
@@ -10828,7 +11039,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="145" s="9" customFormat="1" spans="2:35">
+    <row r="145" spans="1:35">
       <c r="B145" s="24">
         <v>9</v>
       </c>
@@ -10932,7 +11143,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="146" s="9" customFormat="1" spans="2:35">
+    <row r="146" spans="1:35">
       <c r="B146" s="24">
         <v>10</v>
       </c>
@@ -11036,7 +11247,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="147" s="9" customFormat="1" spans="2:35">
+    <row r="147" spans="1:35">
       <c r="B147" s="24">
         <v>11</v>
       </c>
@@ -11140,7 +11351,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="148" s="9" customFormat="1" spans="2:35">
+    <row r="148" spans="1:35">
       <c r="B148" s="24">
         <v>12</v>
       </c>
@@ -11244,7 +11455,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="149" s="9" customFormat="1" spans="2:35">
+    <row r="149" spans="1:35">
       <c r="B149" s="24">
         <v>13</v>
       </c>
@@ -11348,7 +11559,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="150" s="9" customFormat="1" spans="2:35">
+    <row r="150" spans="1:35">
       <c r="B150" s="24">
         <v>14</v>
       </c>
@@ -11452,7 +11663,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="151" s="9" customFormat="1" spans="2:35">
+    <row r="151" spans="1:35">
       <c r="B151" s="24">
         <v>15</v>
       </c>
@@ -11556,7 +11767,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="152" spans="2:35">
+    <row r="152" spans="1:35">
       <c r="B152" s="24">
         <v>390</v>
       </c>
@@ -11660,7 +11871,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="153" ht="13.5" spans="2:35">
+    <row r="153" spans="1:35" ht="13.5">
       <c r="B153" s="10"/>
       <c r="C153" s="10"/>
       <c r="D153" s="10"/>
@@ -11696,7 +11907,7 @@
       <c r="AH153" s="10"/>
       <c r="AI153" s="10"/>
     </row>
-    <row r="154" ht="13.5" spans="2:35">
+    <row r="154" spans="1:35" ht="13.5">
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
       <c r="D154" s="10"/>
@@ -11732,7 +11943,7 @@
       <c r="AH154" s="10"/>
       <c r="AI154" s="10"/>
     </row>
-    <row r="155" ht="13.5" spans="2:35">
+    <row r="155" spans="1:35" ht="13.5">
       <c r="B155" s="10"/>
       <c r="C155" s="10"/>
       <c r="D155" s="10"/>
@@ -11768,7 +11979,7 @@
       <c r="AH155" s="10"/>
       <c r="AI155" s="10"/>
     </row>
-    <row r="156" ht="13.5" spans="2:35">
+    <row r="156" spans="1:35" ht="13.5">
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
       <c r="D156" s="10"/>
@@ -11804,7 +12015,7 @@
       <c r="AH156" s="10"/>
       <c r="AI156" s="10"/>
     </row>
-    <row r="157" ht="13.5" spans="2:35">
+    <row r="157" spans="1:35" ht="13.5">
       <c r="B157" s="10"/>
       <c r="C157" s="10"/>
       <c r="D157" s="10"/>
@@ -11840,7 +12051,7 @@
       <c r="AH157" s="10"/>
       <c r="AI157" s="10"/>
     </row>
-    <row r="158" ht="13.5" spans="2:35">
+    <row r="158" spans="1:35" ht="13.5">
       <c r="B158" s="12"/>
       <c r="C158" s="10"/>
       <c r="D158" s="10"/>
@@ -11876,7 +12087,7 @@
       <c r="AH158" s="10"/>
       <c r="AI158" s="10"/>
     </row>
-    <row r="159" ht="14.25" spans="1:35">
+    <row r="159" spans="1:35" ht="14.25">
       <c r="A159" s="11" t="s">
         <v>59</v>
       </c>
@@ -11917,7 +12128,7 @@
       <c r="AH159" s="10"/>
       <c r="AI159" s="10"/>
     </row>
-    <row r="160" ht="13.5" spans="1:35">
+    <row r="160" spans="1:35" ht="13.5">
       <c r="A160" s="13"/>
       <c r="B160" s="14" t="s">
         <v>283</v>
@@ -11956,7 +12167,7 @@
       <c r="AH160" s="10"/>
       <c r="AI160" s="10"/>
     </row>
-    <row r="161" ht="13.5" spans="1:239">
+    <row r="161" spans="1:239" ht="13.5">
       <c r="A161" s="10"/>
       <c r="B161" s="22" t="s">
         <v>107</v>
@@ -12673,7 +12884,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="162" ht="13.5" spans="1:239">
+    <row r="162" spans="1:239" ht="13.5">
       <c r="A162" s="10"/>
       <c r="B162" s="24">
         <v>78</v>
@@ -13390,7 +13601,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="163" ht="13.5" spans="1:239">
+    <row r="163" spans="1:239" ht="13.5">
       <c r="A163" s="10"/>
       <c r="B163" s="24">
         <v>79</v>
@@ -14107,7 +14318,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="164" ht="13.5" spans="1:239">
+    <row r="164" spans="1:239" ht="13.5">
       <c r="A164" s="10"/>
       <c r="B164" s="24">
         <v>80</v>
@@ -14824,7 +15035,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="165" ht="13.5" spans="2:104">
+    <row r="165" spans="1:239" ht="13.5">
       <c r="B165" s="10"/>
       <c r="C165" s="10"/>
       <c r="D165" s="10"/>
@@ -14861,7 +15072,7 @@
       <c r="AI165" s="10"/>
       <c r="CZ165" s="10"/>
     </row>
-    <row r="166" ht="13.5" spans="2:35">
+    <row r="166" spans="1:239" ht="13.5">
       <c r="B166" s="12"/>
       <c r="C166" s="10"/>
       <c r="D166" s="10"/>
@@ -14897,7 +15108,7 @@
       <c r="AH166" s="10"/>
       <c r="AI166" s="10"/>
     </row>
-    <row r="167" ht="13.5" spans="2:34">
+    <row r="167" spans="1:239" ht="13.5">
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
       <c r="D167" s="10"/>
@@ -14932,7 +15143,7 @@
       <c r="AG167" s="10"/>
       <c r="AH167" s="10"/>
     </row>
-    <row r="168" ht="13.5" spans="2:34">
+    <row r="168" spans="1:239" ht="13.5">
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
       <c r="D168" s="10"/>
@@ -14967,7 +15178,7 @@
       <c r="AG168" s="10"/>
       <c r="AH168" s="10"/>
     </row>
-    <row r="169" ht="13.5" spans="2:34">
+    <row r="169" spans="1:239" ht="13.5">
       <c r="B169" s="10"/>
       <c r="C169" s="10"/>
       <c r="D169" s="10"/>
@@ -15002,7 +15213,7 @@
       <c r="AG169" s="10"/>
       <c r="AH169" s="10"/>
     </row>
-    <row r="170" ht="13.5" spans="2:34">
+    <row r="170" spans="1:239" ht="13.5">
       <c r="B170" s="10"/>
       <c r="C170" s="10"/>
       <c r="D170" s="10"/>
@@ -15037,7 +15248,7 @@
       <c r="AG170" s="10"/>
       <c r="AH170" s="10"/>
     </row>
-    <row r="171" ht="14.25" spans="1:34">
+    <row r="171" spans="1:239" ht="14.25">
       <c r="A171" s="11" t="s">
         <v>59</v>
       </c>
@@ -15077,13 +15288,13 @@
       <c r="AG171" s="10"/>
       <c r="AH171" s="10"/>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:239">
       <c r="A172" s="13"/>
       <c r="B172" s="14" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="173" spans="2:148">
+    <row r="173" spans="1:239">
       <c r="B173" s="23" t="s">
         <v>64</v>
       </c>
@@ -15512,7 +15723,7 @@
       <c r="EQ173" s="23"/>
       <c r="ER173" s="23"/>
     </row>
-    <row r="174" spans="2:141">
+    <row r="174" spans="1:239">
       <c r="B174" s="24" t="s">
         <v>582</v>
       </c>
@@ -15930,7 +16141,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="175" spans="2:141">
+    <row r="175" spans="1:239">
       <c r="B175" s="24" t="s">
         <v>601</v>
       </c>
@@ -16350,7 +16561,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="176" spans="2:141">
+    <row r="176" spans="1:239">
       <c r="B176" s="24" t="s">
         <v>608</v>
       </c>
@@ -16768,7 +16979,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="177" spans="2:141">
+    <row r="177" spans="2:146">
       <c r="B177" s="24" t="s">
         <v>608</v>
       </c>
@@ -17186,7 +17397,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="178" spans="2:141">
+    <row r="178" spans="2:146">
       <c r="B178" s="24" t="s">
         <v>608</v>
       </c>
@@ -17604,7 +17815,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="179" spans="2:141">
+    <row r="179" spans="2:146">
       <c r="B179" s="24" t="s">
         <v>608</v>
       </c>
@@ -18022,7 +18233,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="180" spans="2:141">
+    <row r="180" spans="2:146">
       <c r="B180" s="24" t="s">
         <v>608</v>
       </c>
@@ -18440,7 +18651,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="181" spans="2:141">
+    <row r="181" spans="2:146">
       <c r="B181" s="24" t="s">
         <v>608</v>
       </c>
@@ -18858,7 +19069,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="182" s="37" customFormat="1" ht="13.5" spans="2:146">
+    <row r="182" spans="2:146" s="37" customFormat="1" ht="13.5">
       <c r="B182" s="24" t="s">
         <v>608</v>
       </c>
@@ -19281,7 +19492,7 @@
       <c r="EO182" s="9"/>
       <c r="EP182" s="9"/>
     </row>
-    <row r="183" s="37" customFormat="1" ht="13.5" spans="2:146">
+    <row r="183" spans="2:146" s="37" customFormat="1" ht="13.5">
       <c r="B183" s="24" t="s">
         <v>608</v>
       </c>
@@ -19704,7 +19915,7 @@
       <c r="EO183" s="9"/>
       <c r="EP183" s="9"/>
     </row>
-    <row r="184" s="37" customFormat="1" ht="13.5" spans="2:146">
+    <row r="184" spans="2:146" s="37" customFormat="1" ht="13.5">
       <c r="B184" s="24" t="s">
         <v>608</v>
       </c>
@@ -20127,7 +20338,7 @@
       <c r="EO184" s="9"/>
       <c r="EP184" s="9"/>
     </row>
-    <row r="185" s="37" customFormat="1" ht="13.5" spans="2:146">
+    <row r="185" spans="2:146" s="37" customFormat="1" ht="13.5">
       <c r="B185" s="24" t="s">
         <v>608</v>
       </c>
@@ -20550,7 +20761,7 @@
       <c r="EO185" s="9"/>
       <c r="EP185" s="9"/>
     </row>
-    <row r="186" s="37" customFormat="1" ht="13.5" spans="2:146">
+    <row r="186" spans="2:146" s="37" customFormat="1" ht="13.5">
       <c r="B186" s="24" t="s">
         <v>608</v>
       </c>
@@ -20973,7 +21184,7 @@
       <c r="EO186" s="9"/>
       <c r="EP186" s="9"/>
     </row>
-    <row r="187" s="37" customFormat="1" ht="13.5" spans="2:146">
+    <row r="187" spans="2:146" s="37" customFormat="1" ht="13.5">
       <c r="B187" s="24" t="s">
         <v>608</v>
       </c>
@@ -21400,7 +21611,7 @@
       <c r="EO187" s="9"/>
       <c r="EP187" s="9"/>
     </row>
-    <row r="188" s="37" customFormat="1" ht="13.5" spans="2:146">
+    <row r="188" spans="2:146" s="37" customFormat="1" ht="13.5">
       <c r="B188" s="24" t="s">
         <v>608</v>
       </c>
@@ -21823,7 +22034,7 @@
       <c r="EO188" s="9"/>
       <c r="EP188" s="9"/>
     </row>
-    <row r="189" s="37" customFormat="1" ht="13.5" spans="2:146">
+    <row r="189" spans="2:146" s="37" customFormat="1" ht="13.5">
       <c r="B189" s="24" t="s">
         <v>608</v>
       </c>
@@ -22246,7 +22457,7 @@
       <c r="EO189" s="9"/>
       <c r="EP189" s="9"/>
     </row>
-    <row r="190" s="37" customFormat="1" ht="13.5" spans="2:146">
+    <row r="190" spans="2:146" s="37" customFormat="1" ht="13.5">
       <c r="B190" s="24" t="s">
         <v>608</v>
       </c>
@@ -22669,7 +22880,7 @@
       <c r="EO190" s="9"/>
       <c r="EP190" s="9"/>
     </row>
-    <row r="191" s="37" customFormat="1" ht="13.5" spans="2:146">
+    <row r="191" spans="2:146" s="37" customFormat="1" ht="13.5">
       <c r="B191" s="24" t="s">
         <v>608</v>
       </c>
@@ -23092,7 +23303,7 @@
       <c r="EO191" s="9"/>
       <c r="EP191" s="9"/>
     </row>
-    <row r="192" s="37" customFormat="1" ht="13.5" spans="2:146">
+    <row r="192" spans="2:146" s="37" customFormat="1" ht="13.5">
       <c r="B192" s="24" t="s">
         <v>608</v>
       </c>
@@ -23515,7 +23726,7 @@
       <c r="EO192" s="9"/>
       <c r="EP192" s="9"/>
     </row>
-    <row r="193" s="37" customFormat="1" ht="13.5" spans="2:146">
+    <row r="193" spans="1:146" s="37" customFormat="1" ht="13.5">
       <c r="B193" s="24" t="s">
         <v>608</v>
       </c>
@@ -23938,7 +24149,7 @@
       <c r="EO193" s="9"/>
       <c r="EP193" s="9"/>
     </row>
-    <row r="194" s="37" customFormat="1" ht="13.5" spans="2:146">
+    <row r="194" spans="1:146" s="37" customFormat="1" ht="13.5">
       <c r="B194" s="24" t="s">
         <v>608</v>
       </c>
@@ -24361,7 +24572,7 @@
       <c r="EO194" s="9"/>
       <c r="EP194" s="9"/>
     </row>
-    <row r="200" ht="14.25" spans="1:131">
+    <row r="200" spans="1:146" ht="14.25">
       <c r="A200" s="11" t="s">
         <v>59</v>
       </c>
@@ -24370,13 +24581,13 @@
       </c>
       <c r="EA200" s="38"/>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:146">
       <c r="A201" s="13"/>
       <c r="B201" s="14" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="202" s="38" customFormat="1" ht="12.75" spans="2:33">
+    <row r="202" spans="1:146" s="38" customFormat="1" ht="12.75">
       <c r="B202" s="22" t="s">
         <v>63</v>
       </c>
@@ -24474,7 +24685,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="203" s="38" customFormat="1" ht="12.75" spans="2:33">
+    <row r="203" spans="1:146" s="38" customFormat="1" ht="12.75">
       <c r="B203" s="24">
         <v>1</v>
       </c>
@@ -24572,7 +24783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" s="38" customFormat="1" ht="12.75" spans="2:33">
+    <row r="204" spans="1:146" s="38" customFormat="1" ht="12.75">
       <c r="B204" s="24">
         <v>2</v>
       </c>
@@ -24670,7 +24881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" s="38" customFormat="1" ht="12.75" spans="2:33">
+    <row r="205" spans="1:146" s="38" customFormat="1" ht="12.75">
       <c r="B205" s="24">
         <v>101</v>
       </c>
@@ -24768,7 +24979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" s="38" customFormat="1" ht="12.75" spans="2:33">
+    <row r="206" spans="1:146" s="38" customFormat="1" ht="12.75">
       <c r="B206" s="24">
         <v>102</v>
       </c>
@@ -24866,7 +25077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" s="38" customFormat="1" ht="12.75" spans="2:33">
+    <row r="207" spans="1:146" s="38" customFormat="1" ht="12.75">
       <c r="B207" s="24">
         <v>103</v>
       </c>
@@ -24964,7 +25175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" s="38" customFormat="1" ht="12.75" spans="2:33">
+    <row r="208" spans="1:146" s="38" customFormat="1" ht="12.75">
       <c r="B208" s="24">
         <v>104</v>
       </c>
@@ -25062,7 +25273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" s="38" customFormat="1" ht="12.75" spans="2:33">
+    <row r="209" spans="2:33" s="38" customFormat="1" ht="12.75">
       <c r="B209" s="24">
         <v>105</v>
       </c>
@@ -25160,7 +25371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" s="38" customFormat="1" ht="12.75" spans="2:33">
+    <row r="210" spans="2:33" s="38" customFormat="1" ht="12.75">
       <c r="B210" s="24">
         <v>106</v>
       </c>
@@ -25258,7 +25469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" s="38" customFormat="1" ht="12.75" spans="2:33">
+    <row r="211" spans="2:33" s="38" customFormat="1" ht="12.75">
       <c r="B211" s="24">
         <v>107</v>
       </c>
@@ -25356,7 +25567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" s="38" customFormat="1" ht="12.75" spans="2:33">
+    <row r="212" spans="2:33" s="38" customFormat="1" ht="12.75">
       <c r="B212" s="24">
         <v>108</v>
       </c>
@@ -25454,7 +25665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" s="38" customFormat="1" ht="12.75" spans="2:33">
+    <row r="213" spans="2:33" s="38" customFormat="1" ht="12.75">
       <c r="B213" s="24">
         <v>109</v>
       </c>
@@ -25552,7 +25763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" s="38" customFormat="1" ht="12.75" spans="2:33">
+    <row r="214" spans="2:33" s="38" customFormat="1" ht="12.75">
       <c r="B214" s="24">
         <v>110</v>
       </c>
@@ -25650,7 +25861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" s="38" customFormat="1" ht="12.75" spans="2:33">
+    <row r="215" spans="2:33" s="38" customFormat="1" ht="12.75">
       <c r="B215" s="24">
         <v>111</v>
       </c>
@@ -25748,7 +25959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" s="38" customFormat="1" ht="12.75" spans="2:33">
+    <row r="216" spans="2:33" s="38" customFormat="1" ht="12.75">
       <c r="B216" s="24">
         <v>112</v>
       </c>
@@ -25846,7 +26057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" s="38" customFormat="1" ht="12.75" spans="2:33">
+    <row r="217" spans="2:33" s="38" customFormat="1" ht="12.75">
       <c r="B217" s="24">
         <v>113</v>
       </c>
@@ -25944,7 +26155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" s="38" customFormat="1" ht="12.75" spans="2:33">
+    <row r="218" spans="2:33" s="38" customFormat="1" ht="12.75">
       <c r="B218" s="24">
         <v>114</v>
       </c>
@@ -26042,7 +26253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" s="38" customFormat="1" ht="12.75" spans="2:33">
+    <row r="219" spans="2:33" s="38" customFormat="1" ht="12.75">
       <c r="B219" s="24">
         <v>115</v>
       </c>
@@ -26140,7 +26351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" s="38" customFormat="1" ht="12.75" spans="2:33">
+    <row r="220" spans="2:33" s="38" customFormat="1" ht="12.75">
       <c r="B220" s="24">
         <v>116</v>
       </c>
@@ -26238,7 +26449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" s="38" customFormat="1" ht="12.75" spans="2:33">
+    <row r="221" spans="2:33" s="38" customFormat="1" ht="12.75">
       <c r="B221" s="24">
         <v>117</v>
       </c>
@@ -26336,7 +26547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" s="38" customFormat="1" ht="12.75" spans="2:33">
+    <row r="222" spans="2:33" s="38" customFormat="1" ht="12.75">
       <c r="B222" s="24">
         <v>118</v>
       </c>
@@ -26434,7 +26645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" s="38" customFormat="1" ht="12.75" spans="2:33">
+    <row r="223" spans="2:33" s="38" customFormat="1" ht="12.75">
       <c r="B223" s="24">
         <v>119</v>
       </c>
@@ -26532,7 +26743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" ht="14.25" spans="1:2">
+    <row r="230" spans="1:142" ht="14.25">
       <c r="A230" s="11" t="s">
         <v>59</v>
       </c>
@@ -26540,13 +26751,13 @@
         <v>688</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:142">
       <c r="A231" s="13"/>
       <c r="B231" s="14" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="232" spans="2:28">
+    <row r="232" spans="1:142">
       <c r="B232" s="22" t="s">
         <v>63</v>
       </c>
@@ -26629,7 +26840,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="233" ht="13.5" spans="1:142">
+    <row r="233" spans="1:142" ht="13.5">
       <c r="A233" s="37"/>
       <c r="B233" s="24">
         <v>118</v>
@@ -26827,7 +27038,7 @@
       <c r="EK233" s="37"/>
       <c r="EL233" s="37"/>
     </row>
-    <row r="234" ht="13.5" spans="1:142">
+    <row r="234" spans="1:142" ht="13.5">
       <c r="A234" s="37"/>
       <c r="B234" s="24">
         <v>119</v>
@@ -27025,7 +27236,7 @@
       <c r="EK234" s="37"/>
       <c r="EL234" s="37"/>
     </row>
-    <row r="235" ht="13.5" spans="1:142">
+    <row r="235" spans="1:142" ht="13.5">
       <c r="A235" s="37"/>
       <c r="B235" s="24">
         <v>120</v>
@@ -27223,7 +27434,7 @@
       <c r="EK235" s="37"/>
       <c r="EL235" s="37"/>
     </row>
-    <row r="236" ht="13.5" spans="1:142">
+    <row r="236" spans="1:142" ht="13.5">
       <c r="A236" s="37"/>
       <c r="B236" s="24">
         <v>121</v>
@@ -27421,7 +27632,7 @@
       <c r="EK236" s="37"/>
       <c r="EL236" s="37"/>
     </row>
-    <row r="237" ht="13.5" spans="1:142">
+    <row r="237" spans="1:142" ht="13.5">
       <c r="A237" s="37"/>
       <c r="B237" s="24">
         <v>122</v>
@@ -27619,7 +27830,7 @@
       <c r="EK237" s="37"/>
       <c r="EL237" s="37"/>
     </row>
-    <row r="238" ht="13.5" spans="1:142">
+    <row r="238" spans="1:142" ht="13.5">
       <c r="A238" s="37"/>
       <c r="B238" s="24">
         <v>123</v>
@@ -27817,7 +28028,7 @@
       <c r="EK238" s="37"/>
       <c r="EL238" s="37"/>
     </row>
-    <row r="239" ht="13.5" spans="1:142">
+    <row r="239" spans="1:142" ht="13.5">
       <c r="A239" s="37"/>
       <c r="B239" s="24">
         <v>124</v>
@@ -28015,7 +28226,7 @@
       <c r="EK239" s="37"/>
       <c r="EL239" s="37"/>
     </row>
-    <row r="240" ht="13.5" spans="1:142">
+    <row r="240" spans="1:142" ht="13.5">
       <c r="A240" s="37"/>
       <c r="B240" s="24">
         <v>125</v>
@@ -28213,7 +28424,7 @@
       <c r="EK240" s="37"/>
       <c r="EL240" s="37"/>
     </row>
-    <row r="241" ht="13.5" spans="1:142">
+    <row r="241" spans="1:142" ht="13.5">
       <c r="A241" s="37"/>
       <c r="B241" s="24">
         <v>126</v>
@@ -28411,7 +28622,7 @@
       <c r="EK241" s="37"/>
       <c r="EL241" s="37"/>
     </row>
-    <row r="242" ht="13.5" spans="1:142">
+    <row r="242" spans="1:142" ht="13.5">
       <c r="A242" s="37"/>
       <c r="B242" s="24">
         <v>127</v>
@@ -28609,7 +28820,7 @@
       <c r="EK242" s="37"/>
       <c r="EL242" s="37"/>
     </row>
-    <row r="243" ht="13.5" spans="1:142">
+    <row r="243" spans="1:142" ht="13.5">
       <c r="A243" s="37"/>
       <c r="B243" s="24">
         <v>128</v>
@@ -28807,7 +29018,7 @@
       <c r="EK243" s="37"/>
       <c r="EL243" s="37"/>
     </row>
-    <row r="244" ht="13.5" spans="1:142">
+    <row r="244" spans="1:142" ht="13.5">
       <c r="A244" s="37"/>
       <c r="B244" s="24">
         <v>129</v>
@@ -29005,7 +29216,7 @@
       <c r="EK244" s="37"/>
       <c r="EL244" s="37"/>
     </row>
-    <row r="245" ht="13.5" spans="1:142">
+    <row r="245" spans="1:142" ht="13.5">
       <c r="A245" s="37"/>
       <c r="B245" s="24">
         <v>130</v>
@@ -29203,7 +29414,7 @@
       <c r="EK245" s="37"/>
       <c r="EL245" s="37"/>
     </row>
-    <row r="246" ht="13.5" spans="1:142">
+    <row r="246" spans="1:142" ht="13.5">
       <c r="A246" s="37"/>
       <c r="B246" s="24">
         <v>160</v>
@@ -29401,7 +29612,7 @@
       <c r="EK246" s="37"/>
       <c r="EL246" s="37"/>
     </row>
-    <row r="247" ht="13.5" spans="1:142">
+    <row r="247" spans="1:142" ht="13.5">
       <c r="A247" s="37"/>
       <c r="B247" s="24">
         <v>161</v>
@@ -29599,7 +29810,7 @@
       <c r="EK247" s="37"/>
       <c r="EL247" s="37"/>
     </row>
-    <row r="248" ht="13.5" spans="1:142">
+    <row r="248" spans="1:142" ht="13.5">
       <c r="A248" s="37"/>
       <c r="B248" s="24">
         <v>162</v>
@@ -29797,7 +30008,7 @@
       <c r="EK248" s="37"/>
       <c r="EL248" s="37"/>
     </row>
-    <row r="249" ht="13.5" spans="1:142">
+    <row r="249" spans="1:142" ht="13.5">
       <c r="A249" s="37"/>
       <c r="B249" s="24">
         <v>163</v>
@@ -29995,7 +30206,7 @@
       <c r="EK249" s="37"/>
       <c r="EL249" s="37"/>
     </row>
-    <row r="250" ht="13.5" spans="1:142">
+    <row r="250" spans="1:142" ht="13.5">
       <c r="A250" s="37"/>
       <c r="B250" s="24">
         <v>164</v>
@@ -30193,7 +30404,7 @@
       <c r="EK250" s="37"/>
       <c r="EL250" s="37"/>
     </row>
-    <row r="251" ht="13.5" spans="1:142">
+    <row r="251" spans="1:142" ht="13.5">
       <c r="A251" s="37"/>
       <c r="B251" s="24">
         <v>165</v>
@@ -30391,7 +30602,7 @@
       <c r="EK251" s="37"/>
       <c r="EL251" s="37"/>
     </row>
-    <row r="252" ht="13.5" spans="1:142">
+    <row r="252" spans="1:142" ht="13.5">
       <c r="A252" s="37"/>
       <c r="B252" s="24">
         <v>166</v>
@@ -30589,7 +30800,7 @@
       <c r="EK252" s="37"/>
       <c r="EL252" s="37"/>
     </row>
-    <row r="253" ht="13.5" spans="1:142">
+    <row r="253" spans="1:142" ht="13.5">
       <c r="A253" s="37"/>
       <c r="B253" s="24">
         <v>167</v>
@@ -30787,7 +30998,7 @@
       <c r="EK253" s="37"/>
       <c r="EL253" s="37"/>
     </row>
-    <row r="259" ht="14.25" spans="1:2">
+    <row r="259" spans="1:11" ht="14.25">
       <c r="A259" s="11" t="s">
         <v>59</v>
       </c>
@@ -30795,12 +31006,12 @@
         <v>721</v>
       </c>
     </row>
-    <row r="260" spans="2:2">
+    <row r="260" spans="1:11">
       <c r="B260" s="14" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="261" spans="2:10">
+    <row r="261" spans="1:11">
       <c r="B261" s="22" t="s">
         <v>63</v>
       </c>
@@ -30829,15 +31040,15 @@
         <v>270</v>
       </c>
     </row>
-    <row r="262" spans="2:10">
+    <row r="262" spans="1:11">
       <c r="B262" s="24">
         <v>1</v>
       </c>
       <c r="C262" s="54">
-        <v>43147.2854976852</v>
+        <v>43147.285497685203</v>
       </c>
       <c r="D262" s="54">
-        <v>43147.2854976852</v>
+        <v>43147.285497685203</v>
       </c>
       <c r="E262" s="24">
         <v>0</v>
@@ -30858,7 +31069,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="267" ht="14.25" spans="1:2">
+    <row r="267" spans="1:11" ht="14.25">
       <c r="A267" s="11" t="s">
         <v>59</v>
       </c>
@@ -30866,12 +31077,12 @@
         <v>724</v>
       </c>
     </row>
-    <row r="268" spans="2:2">
+    <row r="268" spans="1:11">
       <c r="B268" s="14" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="269" spans="2:11">
+    <row r="269" spans="1:11">
       <c r="B269" s="22" t="s">
         <v>63</v>
       </c>
@@ -30903,15 +31114,15 @@
         <v>270</v>
       </c>
     </row>
-    <row r="270" spans="2:11">
+    <row r="270" spans="1:11">
       <c r="B270" s="24">
         <v>1</v>
       </c>
       <c r="C270" s="54">
-        <v>43197.2650925926</v>
+        <v>43197.265092592599</v>
       </c>
       <c r="D270" s="54">
-        <v>43197.2650925926</v>
+        <v>43197.265092592599</v>
       </c>
       <c r="E270" s="24">
         <v>0</v>
@@ -30935,15 +31146,15 @@
         <v>175</v>
       </c>
     </row>
-    <row r="271" spans="2:11">
+    <row r="271" spans="1:11">
       <c r="B271" s="24">
         <v>2</v>
       </c>
       <c r="C271" s="54">
-        <v>43197.2650925926</v>
+        <v>43197.265092592599</v>
       </c>
       <c r="D271" s="54">
-        <v>43197.2650925926</v>
+        <v>43197.265092592599</v>
       </c>
       <c r="E271" s="24">
         <v>0</v>
@@ -30967,15 +31178,15 @@
         <v>187</v>
       </c>
     </row>
-    <row r="272" spans="2:11">
+    <row r="272" spans="1:11">
       <c r="B272" s="24">
         <v>3</v>
       </c>
       <c r="C272" s="54">
-        <v>43206.5345486111</v>
+        <v>43206.534548611096</v>
       </c>
       <c r="D272" s="54">
-        <v>43218.3041666667</v>
+        <v>43218.304166666698</v>
       </c>
       <c r="E272" s="24">
         <v>0</v>
@@ -30999,15 +31210,15 @@
         <v>195</v>
       </c>
     </row>
-    <row r="273" spans="2:11">
+    <row r="273" spans="1:13">
       <c r="B273" s="24">
         <v>4</v>
       </c>
       <c r="C273" s="54">
-        <v>43218.3041666667</v>
+        <v>43218.304166666698</v>
       </c>
       <c r="D273" s="54">
-        <v>43218.3041666667</v>
+        <v>43218.304166666698</v>
       </c>
       <c r="E273" s="24">
         <v>0</v>
@@ -31031,11 +31242,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="276" ht="12.75" spans="3:4">
+    <row r="276" spans="1:13" ht="12.75">
       <c r="C276" s="55"/>
       <c r="D276" s="55"/>
     </row>
-    <row r="277" ht="14.25" spans="1:2">
+    <row r="277" spans="1:13" ht="14.25">
       <c r="A277" s="11" t="s">
         <v>59</v>
       </c>
@@ -31043,14 +31254,14 @@
         <v>738</v>
       </c>
     </row>
-    <row r="278" ht="12.75" spans="2:4">
+    <row r="278" spans="1:13" ht="12.75">
       <c r="B278" s="14" t="s">
         <v>739</v>
       </c>
       <c r="C278" s="55"/>
       <c r="D278" s="55"/>
     </row>
-    <row r="279" spans="2:13">
+    <row r="279" spans="1:13">
       <c r="B279" s="22" t="s">
         <v>63</v>
       </c>
@@ -31088,15 +31299,15 @@
         <v>742</v>
       </c>
     </row>
-    <row r="280" spans="2:13">
+    <row r="280" spans="1:13">
       <c r="B280" s="24">
         <v>28</v>
       </c>
       <c r="C280" s="54">
-        <v>43229.3970601852</v>
+        <v>43229.397060185198</v>
       </c>
       <c r="D280" s="54">
-        <v>43229.3985069444</v>
+        <v>43229.398506944402</v>
       </c>
       <c r="E280" s="24">
         <v>0</v>
@@ -31126,15 +31337,15 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="281" spans="2:13">
+    <row r="281" spans="1:13">
       <c r="B281" s="24">
         <v>29</v>
       </c>
       <c r="C281" s="54">
-        <v>43229.3970601852</v>
+        <v>43229.397060185198</v>
       </c>
       <c r="D281" s="54">
-        <v>43234.1663425926</v>
+        <v>43234.166342592602</v>
       </c>
       <c r="E281" s="24">
         <v>0</v>
@@ -31164,15 +31375,15 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="282" spans="2:13">
+    <row r="282" spans="1:13">
       <c r="B282" s="24">
         <v>30</v>
       </c>
       <c r="C282" s="54">
-        <v>43229.3970601852</v>
+        <v>43229.397060185198</v>
       </c>
       <c r="D282" s="54">
-        <v>43234.1663425926</v>
+        <v>43234.166342592602</v>
       </c>
       <c r="E282" s="24">
         <v>0</v>
@@ -31202,15 +31413,15 @@
         <v>3333</v>
       </c>
     </row>
-    <row r="283" spans="2:13">
+    <row r="283" spans="1:13">
       <c r="B283" s="24">
         <v>31</v>
       </c>
       <c r="C283" s="54">
-        <v>43229.4134953704</v>
+        <v>43229.413495370398</v>
       </c>
       <c r="D283" s="54">
-        <v>43229.4134953704</v>
+        <v>43229.413495370398</v>
       </c>
       <c r="E283" s="24">
         <v>0</v>
@@ -31240,12 +31451,12 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="284" spans="2:13">
+    <row r="284" spans="1:13">
       <c r="B284" s="24">
         <v>32</v>
       </c>
       <c r="C284" s="54">
-        <v>43230.2953819444</v>
+        <v>43230.295381944401</v>
       </c>
       <c r="D284" s="54">
         <v>43230.2957523148</v>
@@ -31278,7 +31489,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="285" spans="2:13">
+    <row r="285" spans="1:13">
       <c r="B285" s="24">
         <v>33</v>
       </c>
@@ -31316,15 +31527,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="286" spans="2:13">
+    <row r="286" spans="1:13">
       <c r="B286" s="24">
         <v>34</v>
       </c>
       <c r="C286" s="54">
-        <v>43235.0934722222</v>
+        <v>43235.093472222201</v>
       </c>
       <c r="D286" s="54">
-        <v>43235.0934722222</v>
+        <v>43235.093472222201</v>
       </c>
       <c r="E286" s="24">
         <v>0</v>
@@ -31354,15 +31565,15 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="287" spans="2:13">
+    <row r="287" spans="1:13">
       <c r="B287" s="24">
         <v>35</v>
       </c>
       <c r="C287" s="54">
-        <v>43241.340474537</v>
+        <v>43241.340474536999</v>
       </c>
       <c r="D287" s="54">
-        <v>43241.340474537</v>
+        <v>43241.340474536999</v>
       </c>
       <c r="E287" s="24">
         <v>0</v>
@@ -31392,15 +31603,15 @@
         <v>12345</v>
       </c>
     </row>
-    <row r="288" spans="2:13">
+    <row r="288" spans="1:13">
       <c r="B288" s="24">
         <v>36</v>
       </c>
       <c r="C288" s="54">
-        <v>43241.340474537</v>
+        <v>43241.340474536999</v>
       </c>
       <c r="D288" s="54">
-        <v>43241.340474537</v>
+        <v>43241.340474536999</v>
       </c>
       <c r="E288" s="24">
         <v>0</v>
@@ -31435,10 +31646,10 @@
         <v>37</v>
       </c>
       <c r="C289" s="54">
-        <v>43241.3497337963</v>
+        <v>43241.349733796298</v>
       </c>
       <c r="D289" s="54">
-        <v>43241.3531018519</v>
+        <v>43241.353101851899</v>
       </c>
       <c r="E289" s="24">
         <v>0</v>
@@ -31473,10 +31684,10 @@
         <v>38</v>
       </c>
       <c r="C290" s="54">
-        <v>43241.3497337963</v>
+        <v>43241.349733796298</v>
       </c>
       <c r="D290" s="54">
-        <v>43241.3531018519</v>
+        <v>43241.353101851899</v>
       </c>
       <c r="E290" s="24">
         <v>0</v>
@@ -31511,10 +31722,10 @@
         <v>39</v>
       </c>
       <c r="C291" s="54">
-        <v>43241.3531018519</v>
+        <v>43241.353101851899</v>
       </c>
       <c r="D291" s="54">
-        <v>43241.3531018519</v>
+        <v>43241.353101851899</v>
       </c>
       <c r="E291" s="24">
         <v>0</v>
@@ -31625,10 +31836,10 @@
         <v>42</v>
       </c>
       <c r="C294" s="54">
-        <v>43241.3817708333</v>
+        <v>43241.381770833301</v>
       </c>
       <c r="D294" s="54">
-        <v>43241.3817708333</v>
+        <v>43241.381770833301</v>
       </c>
       <c r="E294" s="24">
         <v>0</v>
@@ -31663,10 +31874,10 @@
         <v>43</v>
       </c>
       <c r="C295" s="54">
-        <v>43241.3817708333</v>
+        <v>43241.381770833301</v>
       </c>
       <c r="D295" s="54">
-        <v>43241.3817708333</v>
+        <v>43241.381770833301</v>
       </c>
       <c r="E295" s="24">
         <v>0</v>
@@ -31696,603 +31907,602 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="300" customFormat="1" ht="13.5"/>
-    <row r="301" customFormat="1" ht="13.5"/>
-    <row r="302" customFormat="1" ht="13.5"/>
-    <row r="303" customFormat="1" ht="13.5"/>
-    <row r="304" customFormat="1" ht="13.5"/>
-    <row r="305" customFormat="1" ht="13.5"/>
-    <row r="306" customFormat="1" ht="13.5"/>
-    <row r="307" customFormat="1" ht="13.5"/>
-    <row r="308" customFormat="1" ht="13.5"/>
-    <row r="309" customFormat="1" ht="13.5"/>
-    <row r="310" customFormat="1" ht="13.5"/>
-    <row r="311" customFormat="1" ht="13.5"/>
-    <row r="312" customFormat="1" ht="13.5"/>
-    <row r="313" customFormat="1" ht="13.5"/>
-    <row r="314" customFormat="1" ht="13.5"/>
-    <row r="315" customFormat="1" ht="13.5"/>
-    <row r="316" customFormat="1" ht="13.5"/>
-    <row r="317" customFormat="1" ht="13.5"/>
-    <row r="318" customFormat="1" ht="13.5"/>
-    <row r="319" customFormat="1" ht="13.5"/>
-    <row r="320" ht="12.75" spans="3:4">
+    <row r="300" spans="2:13" customFormat="1" ht="13.5"/>
+    <row r="301" spans="2:13" customFormat="1" ht="13.5"/>
+    <row r="302" spans="2:13" customFormat="1" ht="13.5"/>
+    <row r="303" spans="2:13" customFormat="1" ht="13.5"/>
+    <row r="304" spans="2:13" customFormat="1" ht="13.5"/>
+    <row r="305" spans="3:4" customFormat="1" ht="13.5"/>
+    <row r="306" spans="3:4" customFormat="1" ht="13.5"/>
+    <row r="307" spans="3:4" customFormat="1" ht="13.5"/>
+    <row r="308" spans="3:4" customFormat="1" ht="13.5"/>
+    <row r="309" spans="3:4" customFormat="1" ht="13.5"/>
+    <row r="310" spans="3:4" customFormat="1" ht="13.5"/>
+    <row r="311" spans="3:4" customFormat="1" ht="13.5"/>
+    <row r="312" spans="3:4" customFormat="1" ht="13.5"/>
+    <row r="313" spans="3:4" customFormat="1" ht="13.5"/>
+    <row r="314" spans="3:4" customFormat="1" ht="13.5"/>
+    <row r="315" spans="3:4" customFormat="1" ht="13.5"/>
+    <row r="316" spans="3:4" customFormat="1" ht="13.5"/>
+    <row r="317" spans="3:4" customFormat="1" ht="13.5"/>
+    <row r="318" spans="3:4" customFormat="1" ht="13.5"/>
+    <row r="319" spans="3:4" customFormat="1" ht="13.5"/>
+    <row r="320" spans="3:4" ht="12.75">
       <c r="C320" s="55"/>
       <c r="D320" s="55"/>
     </row>
-    <row r="321" ht="12.75" spans="3:4">
+    <row r="321" spans="3:4" ht="12.75">
       <c r="C321" s="55"/>
       <c r="D321" s="55"/>
     </row>
-    <row r="322" ht="12.75" spans="3:4">
+    <row r="322" spans="3:4" ht="12.75">
       <c r="C322" s="55"/>
       <c r="D322" s="55"/>
     </row>
-    <row r="323" ht="12.75" spans="3:4">
+    <row r="323" spans="3:4" ht="12.75">
       <c r="C323" s="55"/>
       <c r="D323" s="55"/>
     </row>
-    <row r="324" ht="12.75" spans="3:4">
+    <row r="324" spans="3:4" ht="12.75">
       <c r="C324" s="55"/>
       <c r="D324" s="55"/>
     </row>
-    <row r="325" ht="12.75" spans="3:4">
+    <row r="325" spans="3:4" ht="12.75">
       <c r="C325" s="55"/>
       <c r="D325" s="55"/>
     </row>
-    <row r="326" ht="12.75" spans="3:4">
+    <row r="326" spans="3:4" ht="12.75">
       <c r="C326" s="55"/>
       <c r="D326" s="55"/>
     </row>
-    <row r="327" ht="12.75" spans="3:4">
+    <row r="327" spans="3:4" ht="12.75">
       <c r="C327" s="55"/>
       <c r="D327" s="55"/>
     </row>
-    <row r="328" ht="12.75" spans="3:4">
+    <row r="328" spans="3:4" ht="12.75">
       <c r="C328" s="55"/>
       <c r="D328" s="55"/>
     </row>
-    <row r="329" ht="12.75" spans="3:4">
+    <row r="329" spans="3:4" ht="12.75">
       <c r="C329" s="55"/>
       <c r="D329" s="55"/>
     </row>
-    <row r="330" ht="12.75" spans="3:4">
+    <row r="330" spans="3:4" ht="12.75">
       <c r="C330" s="55"/>
       <c r="D330" s="55"/>
     </row>
-    <row r="331" ht="12.75" spans="3:4">
+    <row r="331" spans="3:4" ht="12.75">
       <c r="C331" s="55"/>
       <c r="D331" s="55"/>
     </row>
-    <row r="332" ht="12.75" spans="3:4">
+    <row r="332" spans="3:4" ht="12.75">
       <c r="C332" s="55"/>
       <c r="D332" s="55"/>
     </row>
-    <row r="333" ht="12.75" spans="3:4">
+    <row r="333" spans="3:4" ht="12.75">
       <c r="C333" s="55"/>
       <c r="D333" s="55"/>
     </row>
-    <row r="334" ht="12.75" spans="3:4">
+    <row r="334" spans="3:4" ht="12.75">
       <c r="C334" s="55"/>
       <c r="D334" s="55"/>
     </row>
-    <row r="335" ht="12.75" spans="3:4">
+    <row r="335" spans="3:4" ht="12.75">
       <c r="C335" s="55"/>
       <c r="D335" s="55"/>
     </row>
-    <row r="336" ht="12.75" spans="3:4">
+    <row r="336" spans="3:4" ht="12.75">
       <c r="C336" s="55"/>
       <c r="D336" s="55"/>
     </row>
-    <row r="337" ht="12.75" spans="3:4">
+    <row r="337" spans="3:4" ht="12.75">
       <c r="C337" s="55"/>
       <c r="D337" s="55"/>
     </row>
-    <row r="338" ht="12.75" spans="3:4">
+    <row r="338" spans="3:4" ht="12.75">
       <c r="C338" s="55"/>
       <c r="D338" s="55"/>
     </row>
-    <row r="339" ht="12.75" spans="3:4">
+    <row r="339" spans="3:4" ht="12.75">
       <c r="C339" s="55"/>
       <c r="D339" s="55"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="24" type="noConversion"/>
   <conditionalFormatting sqref="B161">
-    <cfRule type="cellIs" dxfId="0" priority="472" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="472" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:E173">
-    <cfRule type="cellIs" dxfId="0" priority="409" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="409" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F173">
-    <cfRule type="cellIs" dxfId="0" priority="410" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="410" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G173">
-    <cfRule type="cellIs" dxfId="0" priority="408" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="408" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H173:L173">
-    <cfRule type="cellIs" dxfId="0" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="404" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M173:EK173">
-    <cfRule type="cellIs" dxfId="0" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="257" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EL173">
-    <cfRule type="cellIs" dxfId="0" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="260" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EM173">
-    <cfRule type="cellIs" dxfId="0" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="261" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EN173">
-    <cfRule type="cellIs" dxfId="0" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="262" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EO173">
-    <cfRule type="cellIs" dxfId="0" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="263" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EP173">
-    <cfRule type="cellIs" dxfId="0" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="264" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EQ173">
-    <cfRule type="cellIs" dxfId="0" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="265" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="ER173">
-    <cfRule type="cellIs" dxfId="0" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="266" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EM201">
-    <cfRule type="cellIs" dxfId="0" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="94" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B202">
-    <cfRule type="cellIs" dxfId="0" priority="414" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="414" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C202:AG202">
-    <cfRule type="cellIs" dxfId="0" priority="413" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="413" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U203">
-    <cfRule type="cellIs" dxfId="0" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="59" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA203">
-    <cfRule type="cellIs" dxfId="0" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="58" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U204">
-    <cfRule type="cellIs" dxfId="0" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="52" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B232">
-    <cfRule type="cellIs" dxfId="0" priority="424" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="424" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C232:AA232">
-    <cfRule type="cellIs" dxfId="0" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="423" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB232">
-    <cfRule type="cellIs" dxfId="0" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="51" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A259">
-    <cfRule type="cellIs" dxfId="0" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="49" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B260">
-    <cfRule type="cellIs" dxfId="0" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="47" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B261">
-    <cfRule type="cellIs" dxfId="0" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="45" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C261:J261">
-    <cfRule type="cellIs" dxfId="0" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="43" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F262">
-    <cfRule type="cellIs" dxfId="0" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="37" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I262">
-    <cfRule type="cellIs" dxfId="0" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="36" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J262">
-    <cfRule type="cellIs" dxfId="0" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="38" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A267">
-    <cfRule type="cellIs" dxfId="0" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="48" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B268">
-    <cfRule type="cellIs" dxfId="0" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="46" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B269">
-    <cfRule type="cellIs" dxfId="0" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="44" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C269:K269">
-    <cfRule type="cellIs" dxfId="0" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="42" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A277">
-    <cfRule type="cellIs" dxfId="0" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="32" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B278">
-    <cfRule type="cellIs" dxfId="0" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="31" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B279">
-    <cfRule type="cellIs" dxfId="0" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="30" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C279:M279">
-    <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="29" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L280">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="7" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L281">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="6" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L282">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="5" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F203:F221">
-    <cfRule type="cellIs" dxfId="0" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="92" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F222:F223">
-    <cfRule type="cellIs" dxfId="0" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="91" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F270:F273">
-    <cfRule type="cellIs" dxfId="0" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="35" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F280:F295">
-    <cfRule type="cellIs" dxfId="0" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="26" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I203:I221">
-    <cfRule type="cellIs" dxfId="0" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="89" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I222:I223">
-    <cfRule type="cellIs" dxfId="0" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="88" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I270:I271">
-    <cfRule type="cellIs" dxfId="0" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="34" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I280:I295">
-    <cfRule type="cellIs" dxfId="0" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="27" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J280:J295">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="4" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K270:K273">
-    <cfRule type="cellIs" dxfId="0" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="39" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K280:K282">
-    <cfRule type="cellIs" dxfId="0" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="16" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K284:K288">
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="15" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K290:K295">
-    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="14" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L233:L253">
-    <cfRule type="cellIs" dxfId="0" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="55" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M233:M240">
-    <cfRule type="cellIs" dxfId="0" priority="420" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="420" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M241:M248">
-    <cfRule type="cellIs" dxfId="0" priority="419" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="419" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M249:M253">
-    <cfRule type="cellIs" dxfId="0" priority="418" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="418" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N233:N248">
-    <cfRule type="cellIs" dxfId="0" priority="417" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="417" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N249:N253">
-    <cfRule type="cellIs" dxfId="0" priority="416" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="416" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O203:O221">
-    <cfRule type="cellIs" dxfId="0" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="86" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O222:O223">
-    <cfRule type="cellIs" dxfId="0" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="85" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P203:P221">
-    <cfRule type="cellIs" dxfId="0" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="83" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P222:P223">
-    <cfRule type="cellIs" dxfId="0" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="82" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q203:Q221">
-    <cfRule type="cellIs" dxfId="0" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="80" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q222:Q223">
-    <cfRule type="cellIs" dxfId="0" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="79" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R203:R221">
-    <cfRule type="cellIs" dxfId="0" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="77" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R222:R223">
-    <cfRule type="cellIs" dxfId="0" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="76" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S203:S223">
-    <cfRule type="cellIs" dxfId="0" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="56" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T203:T221">
-    <cfRule type="cellIs" dxfId="0" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="74" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T222:T223">
-    <cfRule type="cellIs" dxfId="0" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="73" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U205:U221">
-    <cfRule type="cellIs" dxfId="0" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="62" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U222:U223">
-    <cfRule type="cellIs" dxfId="0" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="61" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U233:U253">
-    <cfRule type="cellIs" dxfId="0" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="93" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA205:AA221">
-    <cfRule type="cellIs" dxfId="0" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="65" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA222:AA223">
-    <cfRule type="cellIs" dxfId="0" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="64" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB233:AB253">
-    <cfRule type="cellIs" dxfId="0" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="50" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="$A1:$XFD90 C161:XFD161 $A99:$XFD160 A161 $A296:$XFD299 EM196:XFD200 EN201:XFD201 EM224:XFD256 A254:EL256 C230:EL231 AC232:EL232 A229:EL229 $A257:$XFD258 B259:XFD259 A260:A262 C260:XFD260 K261:XFD262 $A263:$XFD266 B267:XFD267 A268:A273 C268:XFD268 L269:XFD273 A279:A295 E276:XFD276 A276:B276 N279:XFD295 $A274:$XFD275 C277:XFD277 E278:XFD278 $A340:$XFD1048576 ES195:XFD195 EM195 E320:XFD339 C171:XFD171 $A162:$XFD170 EQ178:XFD181 A320:B339">
-    <cfRule type="cellIs" dxfId="0" priority="475" operator="equal">
+  <conditionalFormatting sqref="A1:XFD90 C161:XFD161 A99:XFD160 A161 A296:XFD299 EM196:XFD200 EN201:XFD201 EM224:XFD256 A254:EL256 C230:EL231 AC232:EL232 A229:EL229 A257:XFD258 B259:XFD259 A260:A262 C260:XFD260 K261:XFD262 A263:XFD266 B267:XFD267 A268:A273 C268:XFD268 L269:XFD273 A279:A295 E276:XFD276 A276:B276 N279:XFD295 A274:XFD275 C277:XFD277 E278:XFD278 A340:XFD1048576 ES195:XFD195 EM195 E320:XFD339 C171:XFD171 A162:XFD170 EQ178:XFD181 A320:B339">
+    <cfRule type="cellIs" dxfId="40" priority="475" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91:BV98">
-    <cfRule type="cellIs" dxfId="0" priority="473" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="473" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IF91:XFD98">
-    <cfRule type="cellIs" dxfId="0" priority="474" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="474" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A171:B172">
-    <cfRule type="cellIs" dxfId="0" priority="415" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="415" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B174:EK194">
-    <cfRule type="cellIs" dxfId="0" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="96" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EN195:ER195 EL174:EP194">
-    <cfRule type="cellIs" dxfId="0" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="95" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A200:B201">
-    <cfRule type="cellIs" dxfId="0" priority="411" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="411" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B203:B223 AG203:AG223 E203:E223 AA204 G203:H223 J203:N223">
-    <cfRule type="cellIs" dxfId="0" priority="412" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="412" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C203:D221">
-    <cfRule type="cellIs" dxfId="0" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="255" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V203:Z221">
-    <cfRule type="cellIs" dxfId="0" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="71" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB203:AF221">
-    <cfRule type="cellIs" dxfId="0" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="68" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C222:D223">
-    <cfRule type="cellIs" dxfId="0" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="254" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V222:Z223">
-    <cfRule type="cellIs" dxfId="0" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="70" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB222:AF223">
-    <cfRule type="cellIs" dxfId="0" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="67" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A230:B231">
-    <cfRule type="cellIs" dxfId="0" priority="421" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="421" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233:F253 V233:AA253 O233:T253">
-    <cfRule type="cellIs" dxfId="0" priority="422" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="422" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B262:E262 G262:H262">
-    <cfRule type="cellIs" dxfId="0" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="41" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B270:E273 G270:H271 J270:J271 G272:J273">
-    <cfRule type="cellIs" dxfId="0" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="40" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B277 A278">
-    <cfRule type="cellIs" dxfId="0" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="33" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L290:M295 K289:M289 L284:M288 K283:M283 M280:M282 G280:H295 B280:E295">
-    <cfRule type="cellIs" dxfId="0" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="28" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9" style="9" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="9" customWidth="1"/>
@@ -32302,43 +32512,39 @@
     <col min="6" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="1" spans="1:4" ht="12" customHeight="1">
       <c r="A1" s="31" t="s">
         <v>758</v>
       </c>
       <c r="B1" s="56" t="s">
         <v>759</v>
       </c>
-      <c r="C1" s="33"/>
     </row>
-    <row r="4" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="4" spans="1:4" ht="12" customHeight="1">
       <c r="A4" s="31" t="s">
         <v>760</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>761</v>
       </c>
-      <c r="C4" s="33"/>
     </row>
-    <row r="5" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="5" spans="1:4" ht="12" customHeight="1">
       <c r="A5" s="31" t="s">
         <v>760</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>762</v>
       </c>
-      <c r="C5" s="33"/>
     </row>
-    <row r="6" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="6" spans="1:4" ht="14.25">
       <c r="A6" s="31" t="s">
         <v>760</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>763</v>
       </c>
-      <c r="C6" s="33"/>
     </row>
-    <row r="8" customFormat="1" ht="14.25" spans="1:4">
+    <row r="8" spans="1:4" customFormat="1" ht="14.25">
       <c r="A8" s="31" t="s">
         <v>760</v>
       </c>
@@ -32348,7 +32554,7 @@
       <c r="C8" s="33"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" customFormat="1" ht="14.25" spans="1:4">
+    <row r="9" spans="1:4" customFormat="1" ht="14.25">
       <c r="A9" s="31" t="s">
         <v>760</v>
       </c>
@@ -32358,7 +32564,7 @@
       <c r="C9" s="33"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" customFormat="1" ht="14.25" spans="1:4">
+    <row r="10" spans="1:4" customFormat="1" ht="14.25">
       <c r="A10" s="31" t="s">
         <v>760</v>
       </c>
@@ -32368,13 +32574,13 @@
       <c r="C10" s="33"/>
       <c r="D10" s="9"/>
     </row>
-    <row r="11" customFormat="1" ht="13.5" spans="1:4">
+    <row r="11" spans="1:4" customFormat="1" ht="13.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="33"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" customFormat="1" ht="14.25" spans="1:4">
+    <row r="12" spans="1:4" customFormat="1" ht="14.25">
       <c r="A12" s="31" t="s">
         <v>767</v>
       </c>
@@ -32384,7 +32590,7 @@
       <c r="C12" s="33"/>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" customFormat="1" ht="14.25" spans="1:4">
+    <row r="13" spans="1:4" customFormat="1" ht="14.25">
       <c r="A13" s="31" t="s">
         <v>768</v>
       </c>
@@ -32396,7 +32602,7 @@
       </c>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" customFormat="1" ht="14.25" spans="1:4">
+    <row r="14" spans="1:4" customFormat="1" ht="14.25">
       <c r="A14" s="31" t="s">
         <v>771</v>
       </c>
@@ -32404,7 +32610,7 @@
       <c r="C14" s="33"/>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" customFormat="1" ht="14.25" spans="1:4">
+    <row r="15" spans="1:4" customFormat="1" ht="14.25">
       <c r="A15" s="31" t="s">
         <v>772</v>
       </c>
@@ -32414,7 +32620,7 @@
       <c r="C15" s="33"/>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" customFormat="1" ht="14.25" spans="1:4">
+    <row r="16" spans="1:4" customFormat="1" ht="14.25">
       <c r="A16" s="31" t="s">
         <v>760</v>
       </c>
@@ -32424,7 +32630,7 @@
       <c r="C16" s="33"/>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" customFormat="1" ht="14.25" spans="1:4">
+    <row r="17" spans="1:4" customFormat="1" ht="14.25">
       <c r="A17" s="31" t="s">
         <v>760</v>
       </c>
@@ -32434,7 +32640,7 @@
       <c r="C17" s="33"/>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" customFormat="1" ht="14.25" spans="1:4">
+    <row r="18" spans="1:4" customFormat="1" ht="14.25">
       <c r="A18" s="31" t="s">
         <v>767</v>
       </c>
@@ -32444,7 +32650,7 @@
       <c r="C18" s="33"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" customFormat="1" ht="14.25" spans="1:4">
+    <row r="19" spans="1:4" customFormat="1" ht="14.25">
       <c r="A19" s="31" t="s">
         <v>772</v>
       </c>
@@ -32454,13 +32660,13 @@
       <c r="C19" s="33"/>
       <c r="D19" s="9"/>
     </row>
-    <row r="20" customFormat="1" ht="13.5" spans="1:4">
+    <row r="20" spans="1:4" customFormat="1" ht="13.5">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="33"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" customFormat="1" ht="14.25" spans="1:3">
+    <row r="21" spans="1:4" customFormat="1" ht="14.25">
       <c r="A21" s="31" t="s">
         <v>768</v>
       </c>
@@ -32471,7 +32677,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="14.25" spans="1:3">
+    <row r="22" spans="1:4" customFormat="1" ht="14.25">
       <c r="A22" s="31" t="s">
         <v>768</v>
       </c>
@@ -32482,7 +32688,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="14.25" spans="1:3">
+    <row r="23" spans="1:4" customFormat="1" ht="14.25">
       <c r="A23" s="31" t="s">
         <v>768</v>
       </c>
@@ -32493,7 +32699,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="24" customFormat="1" ht="14.25" spans="1:3">
+    <row r="24" spans="1:4" customFormat="1" ht="14.25">
       <c r="A24" s="31" t="s">
         <v>768</v>
       </c>
@@ -32504,7 +32710,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="14.25" spans="1:3">
+    <row r="25" spans="1:4" customFormat="1" ht="14.25">
       <c r="A25" s="31" t="s">
         <v>768</v>
       </c>
@@ -32515,7 +32721,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="26" customFormat="1" ht="14.25" spans="1:3">
+    <row r="26" spans="1:4" customFormat="1" ht="14.25">
       <c r="A26" s="31" t="s">
         <v>768</v>
       </c>
@@ -32526,7 +32732,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="27" customFormat="1" ht="14.25" spans="1:3">
+    <row r="27" spans="1:4" customFormat="1" ht="14.25">
       <c r="A27" s="31" t="s">
         <v>768</v>
       </c>
@@ -32537,14 +32743,14 @@
         <v>787</v>
       </c>
     </row>
-    <row r="28" customFormat="1" ht="13.5"/>
-    <row r="29" customFormat="1" ht="13.5" spans="1:4">
+    <row r="28" spans="1:4" customFormat="1" ht="13.5"/>
+    <row r="29" spans="1:4" customFormat="1" ht="13.5">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="33"/>
       <c r="D29" s="9"/>
     </row>
-    <row r="30" customFormat="1" ht="14.25" spans="1:2">
+    <row r="30" spans="1:4" customFormat="1" ht="14.25">
       <c r="A30" s="31" t="s">
         <v>760</v>
       </c>
@@ -32552,7 +32758,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="31" customFormat="1" ht="14.25" spans="1:2">
+    <row r="31" spans="1:4" customFormat="1" ht="14.25">
       <c r="A31" s="31" t="s">
         <v>772</v>
       </c>
@@ -32560,109 +32766,108 @@
         <v>789</v>
       </c>
     </row>
-    <row r="32" customFormat="1" ht="13.5" spans="1:3">
+    <row r="32" spans="1:4" customFormat="1" ht="13.5">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="33"/>
     </row>
-    <row r="33" customFormat="1" ht="13.5" spans="1:4">
+    <row r="33" spans="1:4" customFormat="1" ht="13.5">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="33"/>
       <c r="D33" s="9"/>
     </row>
-    <row r="34" customFormat="1" ht="13.5" spans="1:4">
+    <row r="34" spans="1:4" customFormat="1" ht="13.5">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="33"/>
       <c r="D34" s="9"/>
     </row>
-    <row r="35" customFormat="1" ht="13.5" spans="1:4">
+    <row r="35" spans="1:4" customFormat="1" ht="13.5">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="33"/>
       <c r="D35" s="9"/>
     </row>
-    <row r="36" customFormat="1" ht="13.5" spans="1:4">
+    <row r="36" spans="1:4" customFormat="1" ht="13.5">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="33"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" customFormat="1" ht="13.5" spans="1:4">
+    <row r="37" spans="1:4" customFormat="1" ht="13.5">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="33"/>
       <c r="D37" s="9"/>
     </row>
-    <row r="38" customFormat="1" ht="13.5" spans="1:4">
+    <row r="38" spans="1:4" customFormat="1" ht="13.5">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="33"/>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" customFormat="1" ht="13.5" spans="1:4">
+    <row r="39" spans="1:4" customFormat="1" ht="13.5">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="33"/>
       <c r="D39" s="9"/>
     </row>
-    <row r="40" customFormat="1" ht="13.5" spans="1:4">
+    <row r="40" spans="1:4" customFormat="1" ht="13.5">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="33"/>
       <c r="D40" s="9"/>
     </row>
-    <row r="41" customFormat="1" ht="13.5" spans="1:4">
+    <row r="41" spans="1:4" customFormat="1" ht="13.5">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="33"/>
       <c r="D41" s="9"/>
     </row>
-    <row r="42" customFormat="1" ht="13.5" spans="1:4">
+    <row r="42" spans="1:4" customFormat="1" ht="13.5">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="33"/>
       <c r="D42" s="9"/>
     </row>
-    <row r="43" customFormat="1" ht="13.5" spans="1:4">
+    <row r="43" spans="1:4" customFormat="1" ht="13.5">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="33"/>
       <c r="D43" s="9"/>
     </row>
-    <row r="44" customFormat="1" ht="13.5" spans="1:4">
+    <row r="44" spans="1:4" customFormat="1" ht="13.5">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="33"/>
       <c r="D44" s="9"/>
     </row>
-    <row r="45" customFormat="1" ht="13.5" spans="1:4">
+    <row r="45" spans="1:4" customFormat="1" ht="13.5">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="33"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" customFormat="1" ht="13.5" spans="1:4">
+    <row r="46" spans="1:4" customFormat="1" ht="13.5">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="33"/>
       <c r="D46" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="24" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C21" r:id="rId2" display="mht@shequchina.cn"/>
+    <hyperlink ref="C21" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IE37"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -32686,7 +32891,7 @@
     <col min="74" max="74" width="9.375"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" spans="1:239">
+    <row r="1" spans="1:239" s="9" customFormat="1">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -33168,7 +33373,7 @@
       <c r="ID2" s="10"/>
       <c r="IE2" s="10"/>
     </row>
-    <row r="3" s="9" customFormat="1" ht="14.25" spans="1:239">
+    <row r="3" spans="1:239" s="9" customFormat="1" ht="14.25">
       <c r="A3" s="11" t="s">
         <v>59</v>
       </c>
@@ -33413,7 +33618,7 @@
       <c r="ID3" s="10"/>
       <c r="IE3" s="10"/>
     </row>
-    <row r="4" s="9" customFormat="1" spans="1:239">
+    <row r="4" spans="1:239" s="9" customFormat="1">
       <c r="A4" s="13"/>
       <c r="B4" s="14" t="s">
         <v>791</v>
@@ -33929,10 +34134,10 @@
         <v>81</v>
       </c>
       <c r="C6" s="19">
-        <v>43276.1005324074</v>
+        <v>43276.100532407399</v>
       </c>
       <c r="D6" s="19">
-        <v>43276.1005324074</v>
+        <v>43276.100532407399</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>83</v>
@@ -34196,10 +34401,10 @@
         <v>87</v>
       </c>
       <c r="C7" s="19">
-        <v>43276.1005324074</v>
+        <v>43276.100532407399</v>
       </c>
       <c r="D7" s="19">
-        <v>43276.1005324074</v>
+        <v>43276.100532407399</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>83</v>
@@ -34463,10 +34668,10 @@
         <v>90</v>
       </c>
       <c r="C8" s="19">
-        <v>43276.1005324074</v>
+        <v>43276.100532407399</v>
       </c>
       <c r="D8" s="19">
-        <v>43276.1005324074</v>
+        <v>43276.100532407399</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>83</v>
@@ -34730,10 +34935,10 @@
         <v>93</v>
       </c>
       <c r="C9" s="19">
-        <v>43276.1005324074</v>
+        <v>43276.100532407399</v>
       </c>
       <c r="D9" s="19">
-        <v>43276.1005324074</v>
+        <v>43276.100532407399</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>83</v>
@@ -34997,10 +35202,10 @@
         <v>97</v>
       </c>
       <c r="C10" s="19">
-        <v>43276.1005324074</v>
+        <v>43276.100532407399</v>
       </c>
       <c r="D10" s="19">
-        <v>43276.1005324074</v>
+        <v>43276.100532407399</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>83</v>
@@ -35264,10 +35469,10 @@
         <v>100</v>
       </c>
       <c r="C11" s="19">
-        <v>43276.1005324074</v>
+        <v>43276.100532407399</v>
       </c>
       <c r="D11" s="19">
-        <v>43276.1005324074</v>
+        <v>43276.100532407399</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>83</v>
@@ -35531,10 +35736,10 @@
         <v>102</v>
       </c>
       <c r="C12" s="19">
-        <v>43276.1005324074</v>
+        <v>43276.100532407399</v>
       </c>
       <c r="D12" s="19">
-        <v>43276.1005324074</v>
+        <v>43276.100532407399</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>83</v>
@@ -35798,10 +36003,10 @@
         <v>632</v>
       </c>
       <c r="C13" s="19">
-        <v>43276.1005324074</v>
+        <v>43276.100532407399</v>
       </c>
       <c r="D13" s="19">
-        <v>43276.1005324074</v>
+        <v>43276.100532407399</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>83</v>
@@ -36065,10 +36270,10 @@
         <v>636</v>
       </c>
       <c r="C14" s="19">
-        <v>43276.1005324074</v>
+        <v>43276.100532407399</v>
       </c>
       <c r="D14" s="19">
-        <v>43276.1005324074</v>
+        <v>43276.100532407399</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>83</v>
@@ -36332,10 +36537,10 @@
         <v>640</v>
       </c>
       <c r="C15" s="19">
-        <v>43276.1005324074</v>
+        <v>43276.100532407399</v>
       </c>
       <c r="D15" s="19">
-        <v>43276.1005324074</v>
+        <v>43276.100532407399</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>83</v>
@@ -36599,10 +36804,10 @@
         <v>600</v>
       </c>
       <c r="C16" s="19">
-        <v>43276.1005324074</v>
+        <v>43276.100532407399</v>
       </c>
       <c r="D16" s="19">
-        <v>43276.1005324074</v>
+        <v>43276.100532407399</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>83</v>
@@ -36866,10 +37071,10 @@
         <v>651</v>
       </c>
       <c r="C17" s="19">
-        <v>43276.1005324074</v>
+        <v>43276.100532407399</v>
       </c>
       <c r="D17" s="19">
-        <v>43276.1005324074</v>
+        <v>43276.100532407399</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>83</v>
@@ -37133,10 +37338,10 @@
         <v>189</v>
       </c>
       <c r="C18" s="19">
-        <v>43276.1005324074</v>
+        <v>43276.100532407399</v>
       </c>
       <c r="D18" s="19">
-        <v>43276.1005324074</v>
+        <v>43276.100532407399</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>83</v>
@@ -37400,10 +37605,10 @@
         <v>658</v>
       </c>
       <c r="C19" s="19">
-        <v>43276.1005324074</v>
+        <v>43276.100532407399</v>
       </c>
       <c r="D19" s="19">
-        <v>43276.1005324074</v>
+        <v>43276.100532407399</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>83</v>
@@ -38384,7 +38589,7 @@
       <c r="ID22" s="10"/>
       <c r="IE22" s="10"/>
     </row>
-    <row r="23" ht="14.25" spans="1:239">
+    <row r="23" spans="1:239" ht="14.25">
       <c r="A23" s="11" t="s">
         <v>59</v>
       </c>
@@ -38872,7 +39077,7 @@
       <c r="ID24" s="10"/>
       <c r="IE24" s="10"/>
     </row>
-    <row r="25" spans="1:239">
+    <row r="25" spans="1:239" ht="14.25">
       <c r="A25" s="10"/>
       <c r="B25" s="15" t="s">
         <v>63</v>
@@ -39215,16 +39420,16 @@
       <c r="ID25" s="10"/>
       <c r="IE25" s="10"/>
     </row>
-    <row r="26" spans="1:239">
+    <row r="26" spans="1:239" ht="14.25">
       <c r="A26" s="10"/>
       <c r="B26" s="20" t="s">
         <v>868</v>
       </c>
       <c r="C26" s="19">
-        <v>43263.2788310185</v>
+        <v>43263.278831018499</v>
       </c>
       <c r="D26" s="19">
-        <v>43263.2788310185</v>
+        <v>43263.278831018499</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>83</v>
@@ -39799,7 +40004,7 @@
       <c r="ID27" s="10"/>
       <c r="IE27" s="10"/>
     </row>
-    <row r="28" customFormat="1" spans="1:239">
+    <row r="28" spans="1:239">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -40040,7 +40245,7 @@
       <c r="ID28" s="10"/>
       <c r="IE28" s="10"/>
     </row>
-    <row r="29" s="9" customFormat="1" spans="2:35">
+    <row r="29" spans="1:239" s="9" customFormat="1">
       <c r="B29" s="12"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -40076,7 +40281,7 @@
       <c r="AH29" s="10"/>
       <c r="AI29" s="10"/>
     </row>
-    <row r="30" s="9" customFormat="1" ht="14.25" spans="1:35">
+    <row r="30" spans="1:239" s="9" customFormat="1" ht="14.25">
       <c r="A30" s="11" t="s">
         <v>59</v>
       </c>
@@ -40117,7 +40322,7 @@
       <c r="AH30" s="10"/>
       <c r="AI30" s="10"/>
     </row>
-    <row r="31" s="9" customFormat="1" spans="1:35">
+    <row r="31" spans="1:239" s="9" customFormat="1">
       <c r="A31" s="13"/>
       <c r="B31" s="14" t="s">
         <v>283</v>
@@ -40156,7 +40361,7 @@
       <c r="AH31" s="10"/>
       <c r="AI31" s="10"/>
     </row>
-    <row r="32" s="9" customFormat="1" spans="1:239">
+    <row r="32" spans="1:239" s="9" customFormat="1">
       <c r="A32" s="10"/>
       <c r="B32" s="22" t="s">
         <v>107</v>
@@ -40873,7 +41078,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="33" s="9" customFormat="1" spans="1:239">
+    <row r="33" spans="1:239" s="9" customFormat="1">
       <c r="A33" s="10"/>
       <c r="B33" s="24">
         <v>78</v>
@@ -41590,7 +41795,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="34" s="9" customFormat="1" spans="1:239">
+    <row r="34" spans="1:239" s="9" customFormat="1">
       <c r="A34" s="10"/>
       <c r="B34" s="24">
         <v>79</v>
@@ -42307,7 +42512,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" s="9" customFormat="1" spans="1:239">
+    <row r="35" spans="1:239" s="9" customFormat="1">
       <c r="A35" s="10"/>
       <c r="B35" s="24">
         <v>80</v>
@@ -43024,7 +43229,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" s="9" customFormat="1" spans="1:239">
+    <row r="36" spans="1:239" s="9" customFormat="1">
       <c r="A36" s="10"/>
       <c r="B36" s="24">
         <v>92</v>
@@ -43246,10 +43451,10 @@
         <v>1</v>
       </c>
       <c r="BW36" s="24">
-        <v>43086.2672685185</v>
+        <v>43086.267268518503</v>
       </c>
       <c r="BX36" s="24">
-        <v>43276.1005324074</v>
+        <v>43276.100532407399</v>
       </c>
       <c r="BY36" s="24">
         <v>0</v>
@@ -43731,7 +43936,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" s="9" customFormat="1" spans="2:35">
+    <row r="37" spans="1:239" s="9" customFormat="1">
       <c r="B37" s="12"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -43768,59 +43973,58 @@
       <c r="AI37" s="10"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="24" type="noConversion"/>
   <conditionalFormatting sqref="AQ26:AV26">
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="$A36:$XFD36">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+  <conditionalFormatting sqref="A36:XFD36">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="$A1:$XFD5 IF6:XFD19 $A20:$XFD28 $A38:$XFD1048576">
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+  <conditionalFormatting sqref="A1:XFD5 IF6:XFD19 A20:XFD28 A38:XFD1048576">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IF3:XFD4">
-    <cfRule type="cellIs" dxfId="0" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="67" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:D19">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:G19">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:M19">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="$A29:$XFD31 A32 C32:XFD32 $A33:$XFD35 $A37:$XFD37">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+  <conditionalFormatting sqref="A29:XFD31 A32 C32:XFD32 A33:XFD35 A37:XFD37">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K157"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
@@ -43833,7 +44037,7 @@
     <col min="2" max="2" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="14.25" spans="1:11">
+    <row r="1" spans="1:11" ht="14.25">
       <c r="A1" s="11" t="s">
         <v>758</v>
       </c>
@@ -43850,7 +44054,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" customFormat="1" spans="1:11">
+    <row r="2" spans="1:11">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="26"/>
@@ -43863,7 +44067,7 @@
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
     </row>
-    <row r="3" customFormat="1" ht="14.25" spans="1:11">
+    <row r="3" spans="1:11" ht="14.25">
       <c r="A3" s="11" t="s">
         <v>760</v>
       </c>
@@ -43880,7 +44084,7 @@
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" customFormat="1" ht="14.25" spans="1:11">
+    <row r="4" spans="1:11" ht="14.25">
       <c r="A4" s="27"/>
       <c r="B4" s="13" t="s">
         <v>878</v>
@@ -43895,7 +44099,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" s="9" customFormat="1" ht="12" spans="1:11">
+    <row r="5" spans="1:11" s="9" customFormat="1" ht="12">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="26"/>
@@ -43908,7 +44112,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" s="9" customFormat="1" ht="14.25" spans="1:11">
+    <row r="6" spans="1:11" s="9" customFormat="1" ht="14.25">
       <c r="A6" s="11" t="s">
         <v>760</v>
       </c>
@@ -43927,7 +44131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="9" customFormat="1" ht="14.25" spans="1:11">
+    <row r="7" spans="1:11" s="9" customFormat="1" ht="14.25">
       <c r="A7" s="11"/>
       <c r="B7" s="13"/>
       <c r="C7" s="26"/>
@@ -43940,7 +44144,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" s="9" customFormat="1" ht="14.25" spans="1:11">
+    <row r="8" spans="1:11" s="9" customFormat="1" ht="14.25">
       <c r="A8" s="27" t="s">
         <v>760</v>
       </c>
@@ -43957,7 +44161,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" ht="14.25" spans="1:11">
+    <row r="9" spans="1:11" ht="14.25">
       <c r="A9" s="27" t="s">
         <v>767</v>
       </c>
@@ -43974,7 +44178,7 @@
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" ht="14.25" spans="1:11">
+    <row r="10" spans="1:11" ht="14.25">
       <c r="A10" s="27" t="s">
         <v>767</v>
       </c>
@@ -43991,7 +44195,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" ht="14.25" spans="1:11">
+    <row r="11" spans="1:11" ht="14.25">
       <c r="A11" s="27" t="s">
         <v>767</v>
       </c>
@@ -44008,7 +44212,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" ht="14.25" spans="1:11">
+    <row r="12" spans="1:11" ht="14.25">
       <c r="A12" s="27" t="s">
         <v>760</v>
       </c>
@@ -44025,7 +44229,7 @@
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" ht="14.25" spans="1:11">
+    <row r="13" spans="1:11" ht="14.25">
       <c r="A13" s="27" t="s">
         <v>767</v>
       </c>
@@ -44042,7 +44246,7 @@
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" ht="14.25" spans="1:11">
+    <row r="14" spans="1:11" ht="14.25">
       <c r="A14" s="27" t="s">
         <v>767</v>
       </c>
@@ -44059,7 +44263,7 @@
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" ht="14.25" spans="1:11">
+    <row r="15" spans="1:11" ht="14.25">
       <c r="A15" s="27" t="s">
         <v>767</v>
       </c>
@@ -44076,7 +44280,7 @@
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" ht="14.25" spans="1:11">
+    <row r="16" spans="1:11" ht="14.25">
       <c r="A16" s="27" t="s">
         <v>760</v>
       </c>
@@ -44093,7 +44297,7 @@
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" ht="14.25" spans="1:11">
+    <row r="17" spans="1:11" ht="14.25">
       <c r="A17" s="27" t="s">
         <v>768</v>
       </c>
@@ -44112,7 +44316,7 @@
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
     </row>
-    <row r="18" ht="14.25" spans="1:11">
+    <row r="18" spans="1:11" ht="14.25">
       <c r="A18" s="27" t="s">
         <v>760</v>
       </c>
@@ -44155,7 +44359,7 @@
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" ht="14.25" spans="1:11">
+    <row r="21" spans="1:11" ht="14.25">
       <c r="A21" s="11" t="s">
         <v>760</v>
       </c>
@@ -44174,7 +44378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:11">
+    <row r="22" spans="1:11" ht="14.25">
       <c r="A22" s="27" t="s">
         <v>760</v>
       </c>
@@ -44191,7 +44395,7 @@
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" ht="14.25" spans="1:11">
+    <row r="23" spans="1:11" ht="14.25">
       <c r="A23" s="30" t="s">
         <v>886</v>
       </c>
@@ -44219,7 +44423,7 @@
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" ht="14.25" spans="1:11">
+    <row r="25" spans="1:11" ht="14.25">
       <c r="A25" s="11" t="s">
         <v>760</v>
       </c>
@@ -44238,7 +44442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" ht="14.25" spans="1:11">
+    <row r="26" spans="1:11" ht="14.25">
       <c r="A26" s="27" t="s">
         <v>760</v>
       </c>
@@ -44255,7 +44459,7 @@
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" ht="14.25" spans="1:11">
+    <row r="27" spans="1:11" ht="14.25">
       <c r="A27" s="27" t="s">
         <v>768</v>
       </c>
@@ -44274,7 +44478,7 @@
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" ht="14.25" spans="1:11">
+    <row r="28" spans="1:11" ht="14.25">
       <c r="A28" s="27" t="s">
         <v>760</v>
       </c>
@@ -44317,7 +44521,7 @@
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" ht="14.25" spans="1:11">
+    <row r="31" spans="1:11" ht="14.25">
       <c r="A31" s="11" t="s">
         <v>760</v>
       </c>
@@ -44336,7 +44540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" ht="14.25" spans="1:11">
+    <row r="32" spans="1:11" ht="14.25">
       <c r="A32" s="27" t="s">
         <v>760</v>
       </c>
@@ -44353,7 +44557,7 @@
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" ht="14.25" spans="1:11">
+    <row r="33" spans="1:11" ht="14.25">
       <c r="A33" s="30" t="s">
         <v>886</v>
       </c>
@@ -44381,7 +44585,7 @@
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
     </row>
-    <row r="35" ht="14.25" spans="1:11">
+    <row r="35" spans="1:11" ht="14.25">
       <c r="A35" s="11" t="s">
         <v>760</v>
       </c>
@@ -44400,7 +44604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" ht="14.25" spans="1:11">
+    <row r="36" spans="1:11" ht="14.25">
       <c r="A36" s="27" t="s">
         <v>760</v>
       </c>
@@ -44417,7 +44621,7 @@
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" ht="14.25" spans="1:11">
+    <row r="37" spans="1:11" ht="14.25">
       <c r="A37" s="30" t="s">
         <v>886</v>
       </c>
@@ -44458,7 +44662,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" ht="14.25" spans="1:11">
+    <row r="40" spans="1:11" ht="14.25">
       <c r="A40" s="11" t="s">
         <v>760</v>
       </c>
@@ -44477,7 +44681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" ht="14.25" spans="1:11">
+    <row r="41" spans="1:11" ht="14.25">
       <c r="A41" s="27" t="s">
         <v>760</v>
       </c>
@@ -44494,7 +44698,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" ht="14.25" spans="1:11">
+    <row r="42" spans="1:11" ht="14.25">
       <c r="A42" s="30" t="s">
         <v>886</v>
       </c>
@@ -44522,7 +44726,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" ht="14.25" spans="1:11">
+    <row r="44" spans="1:11" ht="14.25">
       <c r="A44" s="11" t="s">
         <v>760</v>
       </c>
@@ -44541,7 +44745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" ht="14.25" spans="1:11">
+    <row r="45" spans="1:11" ht="14.25">
       <c r="A45" s="27" t="s">
         <v>768</v>
       </c>
@@ -44560,7 +44764,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" ht="14.25" spans="1:11">
+    <row r="46" spans="1:11" ht="14.25">
       <c r="A46" s="27" t="s">
         <v>768</v>
       </c>
@@ -44579,7 +44783,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" ht="14.25" spans="1:11">
+    <row r="47" spans="1:11" ht="14.25">
       <c r="A47" s="27" t="s">
         <v>768</v>
       </c>
@@ -44598,7 +44802,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" ht="14.25" spans="1:11">
+    <row r="48" spans="1:11" ht="14.25">
       <c r="A48" s="27" t="s">
         <v>768</v>
       </c>
@@ -44617,7 +44821,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" ht="14.25" spans="1:11">
+    <row r="49" spans="1:11" ht="14.25">
       <c r="A49" s="27" t="s">
         <v>768</v>
       </c>
@@ -44636,7 +44840,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" ht="14.25" spans="1:11">
+    <row r="50" spans="1:11" ht="14.25">
       <c r="A50" s="27" t="s">
         <v>768</v>
       </c>
@@ -44655,7 +44859,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" ht="14.25" spans="1:11">
+    <row r="51" spans="1:11" ht="14.25">
       <c r="A51" s="27" t="s">
         <v>768</v>
       </c>
@@ -44674,7 +44878,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" ht="14.25" spans="1:11">
+    <row r="52" spans="1:11" ht="14.25">
       <c r="A52" s="27" t="s">
         <v>760</v>
       </c>
@@ -44691,7 +44895,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" ht="14.25" spans="1:11">
+    <row r="53" spans="1:11" ht="14.25">
       <c r="A53" s="27" t="s">
         <v>760</v>
       </c>
@@ -44708,7 +44912,7 @@
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
     </row>
-    <row r="54" ht="14.25" spans="1:11">
+    <row r="54" spans="1:11" ht="14.25">
       <c r="A54" s="27" t="s">
         <v>760</v>
       </c>
@@ -44725,7 +44929,7 @@
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
     </row>
-    <row r="55" ht="14.25" spans="1:11">
+    <row r="55" spans="1:11" ht="14.25">
       <c r="A55" s="30" t="s">
         <v>886</v>
       </c>
@@ -44753,7 +44957,7 @@
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
     </row>
-    <row r="57" ht="14.25" spans="1:11">
+    <row r="57" spans="1:11" ht="14.25">
       <c r="A57" s="11" t="s">
         <v>760</v>
       </c>
@@ -44772,7 +44976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" ht="14.25" spans="1:11">
+    <row r="58" spans="1:11" ht="14.25">
       <c r="A58" s="27" t="s">
         <v>760</v>
       </c>
@@ -44789,7 +44993,7 @@
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
     </row>
-    <row r="59" ht="14.25" spans="1:11">
+    <row r="59" spans="1:11" ht="14.25">
       <c r="A59" s="27" t="s">
         <v>760</v>
       </c>
@@ -44806,7 +45010,7 @@
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
     </row>
-    <row r="60" ht="14.25" spans="1:11">
+    <row r="60" spans="1:11" ht="14.25">
       <c r="A60" s="27" t="s">
         <v>768</v>
       </c>
@@ -44825,7 +45029,7 @@
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
     </row>
-    <row r="61" ht="14.25" spans="1:11">
+    <row r="61" spans="1:11" ht="14.25">
       <c r="A61" s="27" t="s">
         <v>768</v>
       </c>
@@ -44844,7 +45048,7 @@
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
     </row>
-    <row r="62" ht="14.25" spans="1:11">
+    <row r="62" spans="1:11" ht="14.25">
       <c r="A62" s="27" t="s">
         <v>768</v>
       </c>
@@ -44863,7 +45067,7 @@
       <c r="J62" s="10"/>
       <c r="K62" s="10"/>
     </row>
-    <row r="63" ht="14.25" spans="1:11">
+    <row r="63" spans="1:11" ht="14.25">
       <c r="A63" s="27" t="s">
         <v>768</v>
       </c>
@@ -44882,7 +45086,7 @@
       <c r="J63" s="10"/>
       <c r="K63" s="10"/>
     </row>
-    <row r="64" ht="14.25" spans="1:11">
+    <row r="64" spans="1:11" ht="14.25">
       <c r="A64" s="27" t="s">
         <v>768</v>
       </c>
@@ -44901,7 +45105,7 @@
       <c r="J64" s="10"/>
       <c r="K64" s="10"/>
     </row>
-    <row r="65" ht="14.25" spans="1:11">
+    <row r="65" spans="1:11" ht="14.25">
       <c r="A65" s="27" t="s">
         <v>768</v>
       </c>
@@ -44920,7 +45124,7 @@
       <c r="J65" s="10"/>
       <c r="K65" s="10"/>
     </row>
-    <row r="66" ht="14.25" spans="1:11">
+    <row r="66" spans="1:11" ht="14.25">
       <c r="A66" s="27" t="s">
         <v>768</v>
       </c>
@@ -44939,7 +45143,7 @@
       <c r="J66" s="10"/>
       <c r="K66" s="10"/>
     </row>
-    <row r="67" ht="14.25" spans="1:11">
+    <row r="67" spans="1:11" ht="14.25">
       <c r="A67" s="27" t="s">
         <v>768</v>
       </c>
@@ -44958,7 +45162,7 @@
       <c r="J67" s="10"/>
       <c r="K67" s="10"/>
     </row>
-    <row r="68" ht="14.25" spans="1:11">
+    <row r="68" spans="1:11" ht="14.25">
       <c r="A68" s="27" t="s">
         <v>768</v>
       </c>
@@ -44977,7 +45181,7 @@
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
     </row>
-    <row r="69" ht="14.25" spans="1:11">
+    <row r="69" spans="1:11" ht="14.25">
       <c r="A69" s="27" t="s">
         <v>768</v>
       </c>
@@ -44996,7 +45200,7 @@
       <c r="J69" s="10"/>
       <c r="K69" s="10"/>
     </row>
-    <row r="70" ht="14.25" spans="1:11">
+    <row r="70" spans="1:11" ht="14.25">
       <c r="A70" s="27" t="s">
         <v>760</v>
       </c>
@@ -45028,7 +45232,7 @@
       <c r="J71" s="10"/>
       <c r="K71" s="10"/>
     </row>
-    <row r="72" ht="14.25" spans="1:11">
+    <row r="72" spans="1:11" ht="14.25">
       <c r="A72" s="11" t="s">
         <v>760</v>
       </c>
@@ -45045,7 +45249,7 @@
       <c r="J72" s="10"/>
       <c r="K72" s="10"/>
     </row>
-    <row r="73" ht="14.25" spans="1:11">
+    <row r="73" spans="1:11" ht="14.25">
       <c r="A73" s="30" t="s">
         <v>886</v>
       </c>
@@ -45073,7 +45277,7 @@
       <c r="J74" s="10"/>
       <c r="K74" s="10"/>
     </row>
-    <row r="75" ht="14.25" spans="1:11">
+    <row r="75" spans="1:11" ht="14.25">
       <c r="A75" s="11" t="s">
         <v>760</v>
       </c>
@@ -45092,7 +45296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" ht="14.25" spans="1:11">
+    <row r="76" spans="1:11" ht="14.25">
       <c r="A76" s="27" t="s">
         <v>760</v>
       </c>
@@ -45109,7 +45313,7 @@
       <c r="J76" s="10"/>
       <c r="K76" s="10"/>
     </row>
-    <row r="77" ht="14.25" spans="1:11">
+    <row r="77" spans="1:11" ht="14.25">
       <c r="A77" s="27" t="s">
         <v>767</v>
       </c>
@@ -45126,7 +45330,7 @@
       <c r="J77" s="10"/>
       <c r="K77" s="10"/>
     </row>
-    <row r="78" ht="14.25" spans="1:11">
+    <row r="78" spans="1:11" ht="14.25">
       <c r="A78" s="27" t="s">
         <v>767</v>
       </c>
@@ -45143,7 +45347,7 @@
       <c r="J78" s="10"/>
       <c r="K78" s="10"/>
     </row>
-    <row r="79" ht="14.25" spans="1:11">
+    <row r="79" spans="1:11" ht="14.25">
       <c r="A79" s="27" t="s">
         <v>767</v>
       </c>
@@ -45160,7 +45364,7 @@
       <c r="J79" s="10"/>
       <c r="K79" s="10"/>
     </row>
-    <row r="80" ht="14.25" spans="1:11">
+    <row r="80" spans="1:11" ht="14.25">
       <c r="A80" s="27" t="s">
         <v>760</v>
       </c>
@@ -45177,7 +45381,7 @@
       <c r="J80" s="10"/>
       <c r="K80" s="10"/>
     </row>
-    <row r="81" ht="14.25" spans="1:11">
+    <row r="81" spans="1:11" ht="14.25">
       <c r="A81" s="27" t="s">
         <v>767</v>
       </c>
@@ -45194,7 +45398,7 @@
       <c r="J81" s="10"/>
       <c r="K81" s="10"/>
     </row>
-    <row r="82" ht="14.25" spans="1:11">
+    <row r="82" spans="1:11" ht="14.25">
       <c r="A82" s="27" t="s">
         <v>767</v>
       </c>
@@ -45211,7 +45415,7 @@
       <c r="J82" s="10"/>
       <c r="K82" s="10"/>
     </row>
-    <row r="83" ht="14.25" spans="1:11">
+    <row r="83" spans="1:11" ht="14.25">
       <c r="A83" s="27" t="s">
         <v>767</v>
       </c>
@@ -45228,7 +45432,7 @@
       <c r="J83" s="10"/>
       <c r="K83" s="10"/>
     </row>
-    <row r="84" ht="14.25" spans="1:11">
+    <row r="84" spans="1:11" ht="14.25">
       <c r="A84" s="27" t="s">
         <v>760</v>
       </c>
@@ -45245,7 +45449,7 @@
       <c r="J84" s="10"/>
       <c r="K84" s="10"/>
     </row>
-    <row r="85" ht="14.25" spans="1:11">
+    <row r="85" spans="1:11" ht="14.25">
       <c r="A85" s="27" t="s">
         <v>760</v>
       </c>
@@ -45262,7 +45466,7 @@
       <c r="J85" s="10"/>
       <c r="K85" s="10"/>
     </row>
-    <row r="86" ht="14.25" spans="1:11">
+    <row r="86" spans="1:11" ht="14.25">
       <c r="A86" s="27" t="s">
         <v>760</v>
       </c>
@@ -45279,7 +45483,7 @@
       <c r="J86" s="10"/>
       <c r="K86" s="10"/>
     </row>
-    <row r="87" ht="14.25" spans="1:11">
+    <row r="87" spans="1:11" ht="14.25">
       <c r="A87" s="27" t="s">
         <v>767</v>
       </c>
@@ -45296,7 +45500,7 @@
       <c r="J87" s="10"/>
       <c r="K87" s="10"/>
     </row>
-    <row r="88" ht="14.25" spans="1:11">
+    <row r="88" spans="1:11" ht="14.25">
       <c r="A88" s="27" t="s">
         <v>767</v>
       </c>
@@ -45313,7 +45517,7 @@
       <c r="J88" s="10"/>
       <c r="K88" s="10"/>
     </row>
-    <row r="89" ht="14.25" spans="1:11">
+    <row r="89" spans="1:11" ht="14.25">
       <c r="A89" s="27" t="s">
         <v>767</v>
       </c>
@@ -45330,7 +45534,7 @@
       <c r="J89" s="10"/>
       <c r="K89" s="10"/>
     </row>
-    <row r="90" ht="14.25" spans="1:11">
+    <row r="90" spans="1:11" ht="14.25">
       <c r="A90" s="27" t="s">
         <v>760</v>
       </c>
@@ -45347,7 +45551,7 @@
       <c r="J90" s="10"/>
       <c r="K90" s="10"/>
     </row>
-    <row r="91" ht="14.25" spans="1:11">
+    <row r="91" spans="1:11" ht="14.25">
       <c r="A91" s="27" t="s">
         <v>767</v>
       </c>
@@ -45364,7 +45568,7 @@
       <c r="J91" s="10"/>
       <c r="K91" s="10"/>
     </row>
-    <row r="92" ht="14.25" spans="1:11">
+    <row r="92" spans="1:11" ht="14.25">
       <c r="A92" s="27" t="s">
         <v>767</v>
       </c>
@@ -45381,7 +45585,7 @@
       <c r="J92" s="10"/>
       <c r="K92" s="10"/>
     </row>
-    <row r="93" ht="14.25" spans="1:11">
+    <row r="93" spans="1:11" ht="14.25">
       <c r="A93" s="27" t="s">
         <v>767</v>
       </c>
@@ -45398,7 +45602,7 @@
       <c r="J93" s="10"/>
       <c r="K93" s="10"/>
     </row>
-    <row r="94" ht="14.25" spans="1:11">
+    <row r="94" spans="1:11" ht="14.25">
       <c r="A94" s="27" t="s">
         <v>760</v>
       </c>
@@ -45415,7 +45619,7 @@
       <c r="J94" s="10"/>
       <c r="K94" s="10"/>
     </row>
-    <row r="95" ht="14.25" spans="1:11">
+    <row r="95" spans="1:11" ht="14.25">
       <c r="A95" s="27" t="s">
         <v>767</v>
       </c>
@@ -45432,7 +45636,7 @@
       <c r="J95" s="10"/>
       <c r="K95" s="10"/>
     </row>
-    <row r="96" ht="14.25" spans="1:11">
+    <row r="96" spans="1:11" ht="14.25">
       <c r="A96" s="27" t="s">
         <v>767</v>
       </c>
@@ -45449,7 +45653,7 @@
       <c r="J96" s="10"/>
       <c r="K96" s="10"/>
     </row>
-    <row r="97" ht="14.25" spans="1:11">
+    <row r="97" spans="1:11" ht="14.25">
       <c r="A97" s="27" t="s">
         <v>767</v>
       </c>
@@ -45466,7 +45670,7 @@
       <c r="J97" s="10"/>
       <c r="K97" s="10"/>
     </row>
-    <row r="98" ht="14.25" spans="1:11">
+    <row r="98" spans="1:11" ht="14.25">
       <c r="A98" s="27" t="s">
         <v>760</v>
       </c>
@@ -45483,7 +45687,7 @@
       <c r="J98" s="10"/>
       <c r="K98" s="10"/>
     </row>
-    <row r="99" ht="14.25" spans="1:11">
+    <row r="99" spans="1:11" ht="14.25">
       <c r="A99" s="27" t="s">
         <v>767</v>
       </c>
@@ -45500,7 +45704,7 @@
       <c r="J99" s="10"/>
       <c r="K99" s="10"/>
     </row>
-    <row r="100" ht="14.25" spans="1:11">
+    <row r="100" spans="1:11" ht="14.25">
       <c r="A100" s="27" t="s">
         <v>767</v>
       </c>
@@ -45517,7 +45721,7 @@
       <c r="J100" s="10"/>
       <c r="K100" s="10"/>
     </row>
-    <row r="101" ht="14.25" spans="1:11">
+    <row r="101" spans="1:11" ht="14.25">
       <c r="A101" s="27" t="s">
         <v>767</v>
       </c>
@@ -45534,7 +45738,7 @@
       <c r="J101" s="10"/>
       <c r="K101" s="10"/>
     </row>
-    <row r="102" ht="14.25" spans="1:11">
+    <row r="102" spans="1:11" ht="14.25">
       <c r="A102" s="27" t="s">
         <v>760</v>
       </c>
@@ -45551,7 +45755,7 @@
       <c r="J102" s="10"/>
       <c r="K102" s="10"/>
     </row>
-    <row r="103" ht="14.25" spans="1:11">
+    <row r="103" spans="1:11" ht="14.25">
       <c r="A103" s="27" t="s">
         <v>768</v>
       </c>
@@ -45570,7 +45774,7 @@
       <c r="J103" s="10"/>
       <c r="K103" s="10"/>
     </row>
-    <row r="104" ht="14.25" spans="1:11">
+    <row r="104" spans="1:11" ht="14.25">
       <c r="A104" s="27" t="s">
         <v>760</v>
       </c>
@@ -45613,7 +45817,7 @@
       <c r="J106" s="10"/>
       <c r="K106" s="10"/>
     </row>
-    <row r="107" ht="14.25" spans="1:11">
+    <row r="107" spans="1:11" ht="14.25">
       <c r="A107" s="11" t="s">
         <v>760</v>
       </c>
@@ -45632,7 +45836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" ht="14.25" spans="1:11">
+    <row r="108" spans="1:11" ht="14.25">
       <c r="A108" s="27" t="s">
         <v>760</v>
       </c>
@@ -45649,7 +45853,7 @@
       <c r="J108" s="10"/>
       <c r="K108" s="10"/>
     </row>
-    <row r="109" ht="14.25" spans="1:11">
+    <row r="109" spans="1:11" ht="14.25">
       <c r="A109" s="30" t="s">
         <v>886</v>
       </c>
@@ -45677,7 +45881,7 @@
       <c r="J110" s="10"/>
       <c r="K110" s="10"/>
     </row>
-    <row r="111" ht="14.25" spans="1:11">
+    <row r="111" spans="1:11" ht="14.25">
       <c r="A111" s="11" t="s">
         <v>760</v>
       </c>
@@ -45696,7 +45900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" ht="14.25" spans="1:11">
+    <row r="112" spans="1:11" ht="14.25">
       <c r="A112" s="27" t="s">
         <v>760</v>
       </c>
@@ -45713,7 +45917,7 @@
       <c r="J112" s="10"/>
       <c r="K112" s="10"/>
     </row>
-    <row r="113" ht="14.25" spans="1:11">
+    <row r="113" spans="1:11" ht="14.25">
       <c r="A113" s="27" t="s">
         <v>767</v>
       </c>
@@ -45730,7 +45934,7 @@
       <c r="J113" s="10"/>
       <c r="K113" s="10"/>
     </row>
-    <row r="114" ht="14.25" spans="1:11">
+    <row r="114" spans="1:11" ht="14.25">
       <c r="A114" s="27" t="s">
         <v>767</v>
       </c>
@@ -45747,7 +45951,7 @@
       <c r="J114" s="10"/>
       <c r="K114" s="10"/>
     </row>
-    <row r="115" ht="14.25" spans="1:11">
+    <row r="115" spans="1:11" ht="14.25">
       <c r="A115" s="27" t="s">
         <v>767</v>
       </c>
@@ -45764,7 +45968,7 @@
       <c r="J115" s="10"/>
       <c r="K115" s="10"/>
     </row>
-    <row r="116" ht="14.25" spans="1:11">
+    <row r="116" spans="1:11" ht="14.25">
       <c r="A116" s="27" t="s">
         <v>760</v>
       </c>
@@ -45781,7 +45985,7 @@
       <c r="J116" s="10"/>
       <c r="K116" s="10"/>
     </row>
-    <row r="117" ht="14.25" spans="1:11">
+    <row r="117" spans="1:11" ht="14.25">
       <c r="A117" s="27" t="s">
         <v>768</v>
       </c>
@@ -45800,7 +46004,7 @@
       <c r="J117" s="10"/>
       <c r="K117" s="10"/>
     </row>
-    <row r="118" ht="14.25" spans="1:11">
+    <row r="118" spans="1:11" ht="14.25">
       <c r="A118" s="27" t="s">
         <v>760</v>
       </c>
@@ -45843,7 +46047,7 @@
       <c r="J120" s="10"/>
       <c r="K120" s="10"/>
     </row>
-    <row r="121" ht="14.25" spans="1:11">
+    <row r="121" spans="1:11" ht="14.25">
       <c r="A121" s="11" t="s">
         <v>760</v>
       </c>
@@ -45862,7 +46066,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" ht="14.25" spans="1:11">
+    <row r="122" spans="1:11" ht="14.25">
       <c r="A122" s="27" t="s">
         <v>760</v>
       </c>
@@ -45879,7 +46083,7 @@
       <c r="J122" s="10"/>
       <c r="K122" s="10"/>
     </row>
-    <row r="123" ht="14.25" spans="1:11">
+    <row r="123" spans="1:11" ht="14.25">
       <c r="A123" s="30" t="s">
         <v>886</v>
       </c>
@@ -45907,7 +46111,7 @@
       <c r="J124" s="10"/>
       <c r="K124" s="10"/>
     </row>
-    <row r="125" ht="14.25" spans="1:11">
+    <row r="125" spans="1:11" ht="14.25">
       <c r="A125" s="11" t="s">
         <v>760</v>
       </c>
@@ -45926,7 +46130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" ht="14.25" spans="1:11">
+    <row r="126" spans="1:11" ht="14.25">
       <c r="A126" s="27" t="s">
         <v>760</v>
       </c>
@@ -45943,7 +46147,7 @@
       <c r="J126" s="10"/>
       <c r="K126" s="10"/>
     </row>
-    <row r="127" ht="14.25" spans="1:11">
+    <row r="127" spans="1:11" ht="14.25">
       <c r="A127" s="27" t="s">
         <v>767</v>
       </c>
@@ -45960,7 +46164,7 @@
       <c r="J127" s="10"/>
       <c r="K127" s="10"/>
     </row>
-    <row r="128" ht="14.25" spans="1:11">
+    <row r="128" spans="1:11" ht="14.25">
       <c r="A128" s="27" t="s">
         <v>767</v>
       </c>
@@ -45977,7 +46181,7 @@
       <c r="J128" s="10"/>
       <c r="K128" s="10"/>
     </row>
-    <row r="129" ht="14.25" spans="1:11">
+    <row r="129" spans="1:11" ht="14.25">
       <c r="A129" s="27" t="s">
         <v>767</v>
       </c>
@@ -45994,7 +46198,7 @@
       <c r="J129" s="10"/>
       <c r="K129" s="10"/>
     </row>
-    <row r="130" ht="14.25" spans="1:11">
+    <row r="130" spans="1:11" ht="14.25">
       <c r="A130" s="27" t="s">
         <v>760</v>
       </c>
@@ -46011,7 +46215,7 @@
       <c r="J130" s="10"/>
       <c r="K130" s="10"/>
     </row>
-    <row r="131" ht="14.25" spans="1:11">
+    <row r="131" spans="1:11" ht="14.25">
       <c r="A131" s="27" t="s">
         <v>767</v>
       </c>
@@ -46028,7 +46232,7 @@
       <c r="J131" s="10"/>
       <c r="K131" s="10"/>
     </row>
-    <row r="132" ht="14.25" spans="1:11">
+    <row r="132" spans="1:11" ht="14.25">
       <c r="A132" s="27" t="s">
         <v>767</v>
       </c>
@@ -46045,7 +46249,7 @@
       <c r="J132" s="10"/>
       <c r="K132" s="10"/>
     </row>
-    <row r="133" ht="14.25" spans="1:11">
+    <row r="133" spans="1:11" ht="14.25">
       <c r="A133" s="27" t="s">
         <v>767</v>
       </c>
@@ -46062,7 +46266,7 @@
       <c r="J133" s="10"/>
       <c r="K133" s="10"/>
     </row>
-    <row r="134" ht="14.25" spans="1:11">
+    <row r="134" spans="1:11" ht="14.25">
       <c r="A134" s="27" t="s">
         <v>760</v>
       </c>
@@ -46079,7 +46283,7 @@
       <c r="J134" s="10"/>
       <c r="K134" s="10"/>
     </row>
-    <row r="135" ht="14.25" spans="1:11">
+    <row r="135" spans="1:11" ht="14.25">
       <c r="A135" s="27" t="s">
         <v>767</v>
       </c>
@@ -46096,7 +46300,7 @@
       <c r="J135" s="10"/>
       <c r="K135" s="10"/>
     </row>
-    <row r="136" ht="14.25" spans="1:11">
+    <row r="136" spans="1:11" ht="14.25">
       <c r="A136" s="27" t="s">
         <v>767</v>
       </c>
@@ -46113,7 +46317,7 @@
       <c r="J136" s="10"/>
       <c r="K136" s="10"/>
     </row>
-    <row r="137" ht="14.25" spans="1:11">
+    <row r="137" spans="1:11" ht="14.25">
       <c r="A137" s="27" t="s">
         <v>767</v>
       </c>
@@ -46130,7 +46334,7 @@
       <c r="J137" s="10"/>
       <c r="K137" s="10"/>
     </row>
-    <row r="138" ht="14.25" spans="1:11">
+    <row r="138" spans="1:11" ht="14.25">
       <c r="A138" s="27" t="s">
         <v>760</v>
       </c>
@@ -46147,7 +46351,7 @@
       <c r="J138" s="10"/>
       <c r="K138" s="10"/>
     </row>
-    <row r="139" ht="14.25" spans="1:11">
+    <row r="139" spans="1:11" ht="14.25">
       <c r="A139" s="27" t="s">
         <v>767</v>
       </c>
@@ -46164,7 +46368,7 @@
       <c r="J139" s="10"/>
       <c r="K139" s="10"/>
     </row>
-    <row r="140" ht="14.25" spans="1:11">
+    <row r="140" spans="1:11" ht="14.25">
       <c r="A140" s="27" t="s">
         <v>767</v>
       </c>
@@ -46181,7 +46385,7 @@
       <c r="J140" s="10"/>
       <c r="K140" s="10"/>
     </row>
-    <row r="141" ht="14.25" spans="1:11">
+    <row r="141" spans="1:11" ht="14.25">
       <c r="A141" s="27" t="s">
         <v>767</v>
       </c>
@@ -46198,7 +46402,7 @@
       <c r="J141" s="10"/>
       <c r="K141" s="10"/>
     </row>
-    <row r="142" ht="14.25" spans="1:11">
+    <row r="142" spans="1:11" ht="14.25">
       <c r="A142" s="27" t="s">
         <v>760</v>
       </c>
@@ -46215,7 +46419,7 @@
       <c r="J142" s="10"/>
       <c r="K142" s="10"/>
     </row>
-    <row r="143" ht="14.25" spans="1:11">
+    <row r="143" spans="1:11" ht="14.25">
       <c r="A143" s="27" t="s">
         <v>768</v>
       </c>
@@ -46234,7 +46438,7 @@
       <c r="J143" s="10"/>
       <c r="K143" s="10"/>
     </row>
-    <row r="144" ht="14.25" spans="1:11">
+    <row r="144" spans="1:11" ht="14.25">
       <c r="A144" s="27" t="s">
         <v>760</v>
       </c>
@@ -46277,7 +46481,7 @@
       <c r="J146" s="10"/>
       <c r="K146" s="10"/>
     </row>
-    <row r="147" ht="14.25" spans="1:11">
+    <row r="147" spans="1:11" ht="14.25">
       <c r="A147" s="11" t="s">
         <v>760</v>
       </c>
@@ -46294,7 +46498,7 @@
       <c r="J147" s="10"/>
       <c r="K147" s="10"/>
     </row>
-    <row r="148" ht="14.25" spans="1:11">
+    <row r="148" spans="1:11" ht="14.25">
       <c r="A148" s="27" t="s">
         <v>760</v>
       </c>
@@ -46311,7 +46515,7 @@
       <c r="J148" s="10"/>
       <c r="K148" s="10"/>
     </row>
-    <row r="149" ht="14.25" spans="1:11">
+    <row r="149" spans="1:11" ht="14.25">
       <c r="A149" s="27" t="s">
         <v>767</v>
       </c>
@@ -46328,7 +46532,7 @@
       <c r="J149" s="10"/>
       <c r="K149" s="10"/>
     </row>
-    <row r="150" ht="14.25" spans="1:11">
+    <row r="150" spans="1:11" ht="14.25">
       <c r="A150" s="27" t="s">
         <v>767</v>
       </c>
@@ -46345,7 +46549,7 @@
       <c r="J150" s="10"/>
       <c r="K150" s="10"/>
     </row>
-    <row r="151" ht="14.25" spans="1:11">
+    <row r="151" spans="1:11" ht="14.25">
       <c r="A151" s="27" t="s">
         <v>767</v>
       </c>
@@ -46362,7 +46566,7 @@
       <c r="J151" s="10"/>
       <c r="K151" s="10"/>
     </row>
-    <row r="152" ht="14.25" spans="1:11">
+    <row r="152" spans="1:11" ht="14.25">
       <c r="A152" s="27" t="s">
         <v>760</v>
       </c>
@@ -46379,7 +46583,7 @@
       <c r="J152" s="10"/>
       <c r="K152" s="10"/>
     </row>
-    <row r="153" ht="14.25" spans="1:11">
+    <row r="153" spans="1:11" ht="14.25">
       <c r="A153" s="30" t="s">
         <v>886</v>
       </c>
@@ -46407,7 +46611,7 @@
       <c r="J154" s="10"/>
       <c r="K154" s="10"/>
     </row>
-    <row r="155" ht="14.25" spans="1:11">
+    <row r="155" spans="1:11" ht="14.25">
       <c r="A155" s="11" t="s">
         <v>760</v>
       </c>
@@ -46426,7 +46630,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="156" ht="14.25" spans="1:11">
+    <row r="156" spans="1:11" ht="14.25">
       <c r="A156" s="30" t="s">
         <v>886</v>
       </c>
@@ -46441,7 +46645,7 @@
       <c r="J156" s="10"/>
       <c r="K156" s="10"/>
     </row>
-    <row r="157" ht="14.25" spans="1:2">
+    <row r="157" spans="1:11" ht="14.25">
       <c r="A157" s="31" t="s">
         <v>772</v>
       </c>
@@ -46450,24 +46654,23 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="24" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C17" r:id="rId1" display="mht@shequchina.cn" tooltip="mailto:mht@shequchina.cn"/>
-    <hyperlink ref="C27" r:id="rId1" display="mht@shequchina.cn" tooltip="mailto:mht@shequchina.cn"/>
-    <hyperlink ref="C103" r:id="rId1" display="mht@shequchina.cn" tooltip="mailto:mht@shequchina.cn"/>
-    <hyperlink ref="C117" r:id="rId1" display="mht@shequchina.cn" tooltip="mailto:mht@shequchina.cn"/>
-    <hyperlink ref="C143" r:id="rId1" display="mht@shequchina.cn" tooltip="mailto:mht@shequchina.cn"/>
+    <hyperlink ref="C17" r:id="rId1" tooltip="mailto:mht@shequchina.cn"/>
+    <hyperlink ref="C27" r:id="rId2" tooltip="mailto:mht@shequchina.cn"/>
+    <hyperlink ref="C103" r:id="rId3" tooltip="mailto:mht@shequchina.cn"/>
+    <hyperlink ref="C117" r:id="rId4" tooltip="mailto:mht@shequchina.cn"/>
+    <hyperlink ref="C143" r:id="rId5" tooltip="mailto:mht@shequchina.cn"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IE39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
@@ -46488,7 +46691,7 @@
     <col min="74" max="74" width="9.375"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" spans="1:239">
+    <row r="1" spans="1:239" s="9" customFormat="1">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -46970,7 +47173,7 @@
       <c r="ID2" s="10"/>
       <c r="IE2" s="10"/>
     </row>
-    <row r="3" s="9" customFormat="1" ht="14.25" spans="1:239">
+    <row r="3" spans="1:239" s="9" customFormat="1" ht="14.25">
       <c r="A3" s="11" t="s">
         <v>59</v>
       </c>
@@ -47215,7 +47418,7 @@
       <c r="ID3" s="10"/>
       <c r="IE3" s="10"/>
     </row>
-    <row r="4" s="9" customFormat="1" spans="1:239">
+    <row r="4" spans="1:239" s="9" customFormat="1">
       <c r="A4" s="13"/>
       <c r="B4" s="14" t="s">
         <v>791</v>
@@ -47731,10 +47934,10 @@
         <v>81</v>
       </c>
       <c r="C6" s="19">
-        <v>43276.1158680556</v>
+        <v>43276.115868055596</v>
       </c>
       <c r="D6" s="19">
-        <v>43276.1161921296</v>
+        <v>43276.116192129601</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>83</v>
@@ -47998,10 +48201,10 @@
         <v>87</v>
       </c>
       <c r="C7" s="19">
-        <v>43276.1158680556</v>
+        <v>43276.115868055596</v>
       </c>
       <c r="D7" s="19">
-        <v>43276.1162268519</v>
+        <v>43276.116226851896</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>83</v>
@@ -48265,10 +48468,10 @@
         <v>90</v>
       </c>
       <c r="C8" s="19">
-        <v>43276.1158680556</v>
+        <v>43276.115868055596</v>
       </c>
       <c r="D8" s="19">
-        <v>43276.1162962963</v>
+        <v>43276.116296296299</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>83</v>
@@ -48532,10 +48735,10 @@
         <v>93</v>
       </c>
       <c r="C9" s="19">
-        <v>43276.1158680556</v>
+        <v>43276.115868055596</v>
       </c>
       <c r="D9" s="19">
-        <v>43276.1163194444</v>
+        <v>43276.116319444402</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>83</v>
@@ -48799,10 +49002,10 @@
         <v>97</v>
       </c>
       <c r="C10" s="19">
-        <v>43276.1158680556</v>
+        <v>43276.115868055596</v>
       </c>
       <c r="D10" s="19">
-        <v>43276.1163657407</v>
+        <v>43276.116365740701</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>83</v>
@@ -49066,10 +49269,10 @@
         <v>100</v>
       </c>
       <c r="C11" s="19">
-        <v>43276.1158680556</v>
+        <v>43276.115868055596</v>
       </c>
       <c r="D11" s="19">
-        <v>43276.116400463</v>
+        <v>43276.116400462997</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>83</v>
@@ -49333,10 +49536,10 @@
         <v>102</v>
       </c>
       <c r="C12" s="19">
-        <v>43276.1158680556</v>
+        <v>43276.115868055596</v>
       </c>
       <c r="D12" s="19">
-        <v>43276.1165509259</v>
+        <v>43276.116550925901</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>83</v>
@@ -49600,10 +49803,10 @@
         <v>632</v>
       </c>
       <c r="C13" s="19">
-        <v>43276.1158680556</v>
+        <v>43276.115868055596</v>
       </c>
       <c r="D13" s="19">
-        <v>43276.1167592593</v>
+        <v>43276.116759259297</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>83</v>
@@ -49867,10 +50070,10 @@
         <v>636</v>
       </c>
       <c r="C14" s="19">
-        <v>43276.1158680556</v>
+        <v>43276.115868055596</v>
       </c>
       <c r="D14" s="19">
-        <v>43276.117349537</v>
+        <v>43276.117349537002</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>83</v>
@@ -50134,10 +50337,10 @@
         <v>640</v>
       </c>
       <c r="C15" s="19">
-        <v>43276.1158680556</v>
+        <v>43276.115868055596</v>
       </c>
       <c r="D15" s="19">
-        <v>43276.1173842593</v>
+        <v>43276.117384259298</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>83</v>
@@ -50401,10 +50604,10 @@
         <v>600</v>
       </c>
       <c r="C16" s="19">
-        <v>43276.1158680556</v>
+        <v>43276.115868055596</v>
       </c>
       <c r="D16" s="19">
-        <v>43276.1176041667</v>
+        <v>43276.117604166699</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>83</v>
@@ -50668,10 +50871,10 @@
         <v>651</v>
       </c>
       <c r="C17" s="19">
-        <v>43276.1158680556</v>
+        <v>43276.115868055596</v>
       </c>
       <c r="D17" s="19">
-        <v>43276.1176273148</v>
+        <v>43276.117627314801</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>83</v>
@@ -50935,10 +51138,10 @@
         <v>189</v>
       </c>
       <c r="C18" s="19">
-        <v>43276.1158680556</v>
+        <v>43276.115868055596</v>
       </c>
       <c r="D18" s="19">
-        <v>43276.1180324074</v>
+        <v>43276.118032407401</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>83</v>
@@ -51202,10 +51405,10 @@
         <v>658</v>
       </c>
       <c r="C19" s="19">
-        <v>43276.1158680556</v>
+        <v>43276.115868055596</v>
       </c>
       <c r="D19" s="19">
-        <v>43276.1181365741</v>
+        <v>43276.118136574099</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>83</v>
@@ -52186,7 +52389,7 @@
       <c r="ID22" s="10"/>
       <c r="IE22" s="10"/>
     </row>
-    <row r="23" ht="14.25" spans="1:239">
+    <row r="23" spans="1:239" ht="14.25">
       <c r="A23" s="11" t="s">
         <v>59</v>
       </c>
@@ -52674,7 +52877,7 @@
       <c r="ID24" s="10"/>
       <c r="IE24" s="10"/>
     </row>
-    <row r="25" spans="1:239">
+    <row r="25" spans="1:239" ht="14.25">
       <c r="A25" s="10"/>
       <c r="B25" s="15" t="s">
         <v>63</v>
@@ -53017,16 +53220,16 @@
       <c r="ID25" s="10"/>
       <c r="IE25" s="10"/>
     </row>
-    <row r="26" spans="1:239">
+    <row r="26" spans="1:239" ht="14.25">
       <c r="A26" s="10"/>
       <c r="B26" s="20" t="s">
         <v>81</v>
       </c>
       <c r="C26" s="19">
-        <v>43276.1005324074</v>
+        <v>43276.100532407399</v>
       </c>
       <c r="D26" s="19">
-        <v>43276.1005324074</v>
+        <v>43276.100532407399</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>83</v>
@@ -53842,7 +54045,7 @@
       <c r="ID28" s="10"/>
       <c r="IE28" s="10"/>
     </row>
-    <row r="31" s="9" customFormat="1" spans="2:35">
+    <row r="31" spans="1:239" s="9" customFormat="1">
       <c r="B31" s="12"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -53878,7 +54081,7 @@
       <c r="AH31" s="10"/>
       <c r="AI31" s="10"/>
     </row>
-    <row r="32" s="9" customFormat="1" ht="14.25" spans="1:35">
+    <row r="32" spans="1:239" s="9" customFormat="1" ht="14.25">
       <c r="A32" s="11" t="s">
         <v>59</v>
       </c>
@@ -53919,7 +54122,7 @@
       <c r="AH32" s="10"/>
       <c r="AI32" s="10"/>
     </row>
-    <row r="33" s="9" customFormat="1" spans="1:35">
+    <row r="33" spans="1:239" s="9" customFormat="1">
       <c r="A33" s="13"/>
       <c r="B33" s="14" t="s">
         <v>283</v>
@@ -53958,7 +54161,7 @@
       <c r="AH33" s="10"/>
       <c r="AI33" s="10"/>
     </row>
-    <row r="34" s="9" customFormat="1" spans="1:239">
+    <row r="34" spans="1:239" s="9" customFormat="1">
       <c r="A34" s="10"/>
       <c r="B34" s="22" t="s">
         <v>107</v>
@@ -54675,7 +54878,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="35" s="9" customFormat="1" spans="1:239">
+    <row r="35" spans="1:239" s="9" customFormat="1">
       <c r="A35" s="10"/>
       <c r="B35" s="24">
         <v>78</v>
@@ -55392,7 +55595,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="36" s="9" customFormat="1" spans="1:239">
+    <row r="36" spans="1:239" s="9" customFormat="1">
       <c r="A36" s="10"/>
       <c r="B36" s="24">
         <v>79</v>
@@ -56109,7 +56312,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" s="9" customFormat="1" spans="1:239">
+    <row r="37" spans="1:239" s="9" customFormat="1">
       <c r="A37" s="10"/>
       <c r="B37" s="24">
         <v>80</v>
@@ -56826,7 +57029,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" s="9" customFormat="1" spans="1:239">
+    <row r="38" spans="1:239" s="9" customFormat="1">
       <c r="A38" s="10"/>
       <c r="B38" s="24">
         <v>92</v>
@@ -57048,10 +57251,10 @@
         <v>1</v>
       </c>
       <c r="BW38" s="24">
-        <v>43086.2672685185</v>
+        <v>43086.267268518503</v>
       </c>
       <c r="BX38" s="24">
-        <v>43276.1005324074</v>
+        <v>43276.100532407399</v>
       </c>
       <c r="BY38" s="24">
         <v>0</v>
@@ -57533,7 +57736,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" s="9" customFormat="1" spans="2:35">
+    <row r="39" spans="1:239" s="9" customFormat="1">
       <c r="B39" s="12"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -57570,46 +57773,47 @@
       <c r="AI39" s="10"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="24" type="noConversion"/>
   <conditionalFormatting sqref="C26:D26">
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="$A38:$XFD38">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+  <conditionalFormatting sqref="A38:XFD38">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="$A1:$XFD5 IF6:XFD19 $A20:$XFD25 IF26:XFD26 $A27:$XFD30 $A40:$XFD1048576">
-    <cfRule type="cellIs" dxfId="1" priority="21" operator="equal">
+  <conditionalFormatting sqref="A1:XFD5 IF6:XFD19 A20:XFD25 IF26:XFD26 A27:XFD30 A40:XFD1048576">
+    <cfRule type="cellIs" dxfId="7" priority="21" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="$A1:$XFD5 IF6:XFD19 $A20:$XFD1048576">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+  <conditionalFormatting sqref="A1:XFD5 IF6:XFD19 A20:XFD1048576">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IF3:XFD4">
-    <cfRule type="cellIs" dxfId="0" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="23" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:D19">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -57618,31 +57822,29 @@
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="$A31:$XFD33 $A39:$XFD39 C34:XFD34 A34">
-    <cfRule type="cellIs" dxfId="0" priority="16" operator="equal">
+  <conditionalFormatting sqref="A31:XFD33 A39:XFD39 C34:XFD34 A34">
+    <cfRule type="cellIs" dxfId="1" priority="16" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="$A35:$XFD37">
+  <conditionalFormatting sqref="A35:XFD37">
     <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:H28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="2.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
@@ -57677,7 +57879,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:8">
       <c r="B5" s="8" t="s">
         <v>972</v>
       </c>
@@ -57694,7 +57896,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:8">
       <c r="B6" s="8" t="s">
         <v>977</v>
       </c>
@@ -57708,48 +57910,48 @@
         <v>979</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:8">
       <c r="B7" s="8" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:8">
       <c r="B8" s="8" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:8">
       <c r="B9" s="8" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="2:8">
       <c r="B10" s="8" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="2:8">
       <c r="B11" s="8" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="2:8">
       <c r="B12" s="8" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="2:8">
       <c r="B13" s="8" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="2:8">
       <c r="B14" s="8"/>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="2:8">
       <c r="B15" s="8"/>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="2:8">
       <c r="B16" s="8"/>
     </row>
     <row r="17" spans="2:2">
@@ -57789,8 +57991,8 @@
       <c r="B28" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="24" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>